--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9348" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{298D0BB6-2AA9-47CC-8DFB-8156F4F794DF}"/>
+  <xr:revisionPtr revIDLastSave="9401" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782C6998-B739-4E13-AA57-0E7EB2DA2ED5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="2019" sheetId="26" r:id="rId12"/>
     <sheet name="2020" sheetId="27" r:id="rId13"/>
     <sheet name="2021" sheetId="28" r:id="rId14"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId15"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId16"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId17"/>
+    <sheet name="2022" sheetId="31" r:id="rId15"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId16"/>
+    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId17"/>
+    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="767">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2338,6 +2339,18 @@
   </si>
   <si>
     <t>Paula Badosa Gibert (SPAIN)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(4)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -2496,17 +2509,8 @@
               <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Garbiñe Muguruza</a:t>
+              <a:t>Garbiñe Muguruza (SPAIN): YTD Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> (SPAIN): YTD Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1" i="0">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2565,19 +2569,17 @@
               <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
                 </c:pt>
@@ -2620,15 +2622,18 @@
                 <c:pt idx="13">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$15</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2671,12 +2676,15 @@
                 <c:pt idx="13">
                   <c:v>42</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAAB-4F89-A522-0C6E12FE3BFA}"/>
+              <c16:uniqueId val="{00000000-4A35-420C-A5B5-8A86E4A1ABA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2699,19 +2707,17 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
                 </c:pt>
@@ -2754,15 +2760,18 @@
                 <c:pt idx="13">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$15</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2805,12 +2814,15 @@
                 <c:pt idx="13">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BAAB-4F89-A522-0C6E12FE3BFA}"/>
+              <c16:uniqueId val="{00000001-4A35-420C-A5B5-8A86E4A1ABA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2824,11 +2836,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1300493264"/>
-        <c:axId val="1300494096"/>
+        <c:axId val="2133204384"/>
+        <c:axId val="2133200224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1300493264"/>
+        <c:axId val="2133204384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +2938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1300494096"/>
+        <c:crossAx val="2133200224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2934,7 +2946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1300494096"/>
+        <c:axId val="2133200224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2975,13 +2987,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF</a:t>
+                  <a:t>NUMBER OF MATCHES</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> MATCHES</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3045,7 +3052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1300493264"/>
+        <c:crossAx val="2133204384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3154,24 +3161,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Garbiñe Muguruza (SPAIN)</a:t>
+              <a:t>Garbiñe Muguruza</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>: </a:t>
+              <a:t> (SPAIN): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400"/>
+            <a:endParaRPr lang="en-US" b="1" i="0">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3265,10 +3268,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
                 </c:pt>
@@ -3311,15 +3314,18 @@
                 <c:pt idx="13">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$15</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3362,13 +3368,16 @@
                 <c:pt idx="13">
                   <c:v>0.59523809523809523</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3EAF-4DD7-8CA0-7D13ACF2600A}"/>
+              <c16:uniqueId val="{00000000-0BD5-4449-8569-E8C243DA5303}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3382,11 +3391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1709072384"/>
-        <c:axId val="1709072800"/>
+        <c:axId val="2133203136"/>
+        <c:axId val="2133197728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1709072384"/>
+        <c:axId val="2133203136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1709072800"/>
+        <c:crossAx val="2133197728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3492,7 +3501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1709072800"/>
+        <c:axId val="2133197728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,7 +3607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1709072384"/>
+        <c:crossAx val="2133203136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4257,7 +4266,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4365,6 +4374,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4375,6 +4389,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4406,6 +4425,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4760,18 +4782,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1AC0CF43-A8BE-455D-B476-412E9A03AFFF}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6DBA1FFD-73E1-4BBB-9B0D-1D7556433E0B}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D3BB05A9-A88C-48E3-A2FC-01BE45756DDF}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F45230E6-E654-4546-8C1D-E661495B1D78}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4786,13 +4809,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E78707-EB39-4DAA-81C6-10DCDE1BDEC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803CEBA9-E9E1-42E1-BA0B-768B0EDB6F44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,7 +4848,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C892DC-797D-44D5-B328-7548A9C024EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030E1CDE-41FF-42D0-AD91-711B39C60390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8565,7 +8588,7 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -9590,14 +9613,109 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916853C6-A38C-4A48-B4DF-94576EEABDCD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9647,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="8" t="e">
-        <f t="shared" ref="F2:F15" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F16" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T2" s="9"/>
@@ -9927,57 +10045,78 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="6">
-        <f>SUM(B2:B15)</f>
-        <v>237</v>
-      </c>
-      <c r="C16" s="6">
-        <f>SUM(C2:C15)</f>
-        <v>10</v>
-      </c>
-      <c r="D16" s="6">
-        <f>SUM(D2:D15)</f>
-        <v>436</v>
-      </c>
-      <c r="E16" s="6">
-        <f>SUM(E2:E15)</f>
-        <v>220</v>
-      </c>
-      <c r="F16" s="7">
-        <f>(D16-E16)/D16</f>
-        <v>0.49541284403669728</v>
+      <c r="A16">
+        <v>2022</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>745</v>
+        <v>66</v>
       </c>
       <c r="B17" s="6">
-        <f>AVERAGE(B2:B15)</f>
-        <v>16.928571428571427</v>
+        <f>SUM(B2:B16)</f>
+        <v>238</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ref="C17:E17" si="1">AVERAGE(C2:C15)</f>
-        <v>0.7142857142857143</v>
+        <f>SUM(C2:C16)</f>
+        <v>10</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
-        <v>31.142857142857142</v>
+        <f>SUM(D2:D16)</f>
+        <v>437</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="1"/>
-        <v>15.714285714285714</v>
+        <f>SUM(E2:E16)</f>
+        <v>221</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.49541284403669728</v>
+        <v>0.49427917620137302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B18" s="6">
+        <f>AVERAGE(B2:B16)</f>
+        <v>15.866666666666667</v>
+      </c>
+      <c r="C18" s="6">
+        <f>AVERAGE(C2:C16)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D18" s="6">
+        <f>AVERAGE(D2:D16)</f>
+        <v>29.133333333333333</v>
+      </c>
+      <c r="E18" s="6">
+        <f>AVERAGE(E2:E16)</f>
+        <v>14.733333333333333</v>
+      </c>
+      <c r="F18" s="7">
+        <f>(D18-E18)/D18</f>
+        <v>0.49427917620137302</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F15">
+  <conditionalFormatting sqref="F2:F16">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9401" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782C6998-B739-4E13-AA57-0E7EB2DA2ED5}"/>
+  <xr:revisionPtr revIDLastSave="9410" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6BF29FA-3971-496A-A835-416A5F53AEC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="767">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2677,7 +2677,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2815,7 +2815,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8588,8 +8588,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9617,10 +9617,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9700,6 +9700,26 @@
       <c r="D5" t="s">
         <v>766</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9714,7 +9734,7 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -10049,16 +10069,16 @@
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
@@ -10071,7 +10091,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B2:B16)</f>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C2:C16)</f>
@@ -10079,15 +10099,15 @@
       </c>
       <c r="D17" s="6">
         <f>SUM(D2:D16)</f>
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E17" s="6">
         <f>SUM(E2:E16)</f>
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.49427917620137302</v>
+        <v>0.49315068493150682</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10096,7 +10116,7 @@
       </c>
       <c r="B18" s="6">
         <f>AVERAGE(B2:B16)</f>
-        <v>15.866666666666667</v>
+        <v>15.933333333333334</v>
       </c>
       <c r="C18" s="6">
         <f>AVERAGE(C2:C16)</f>
@@ -10104,15 +10124,15 @@
       </c>
       <c r="D18" s="6">
         <f>AVERAGE(D2:D16)</f>
-        <v>29.133333333333333</v>
+        <v>29.2</v>
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(E2:E16)</f>
-        <v>14.733333333333333</v>
+        <v>14.8</v>
       </c>
       <c r="F18" s="7">
         <f>(D18-E18)/D18</f>
-        <v>0.49427917620137302</v>
+        <v>0.49315068493150682</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9410" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6BF29FA-3971-496A-A835-416A5F53AEC3}"/>
+  <xr:revisionPtr revIDLastSave="9457" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5FDE1A-4EB3-46E3-B672-333A4DF8C5D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="771">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2351,6 +2351,18 @@
   </si>
   <si>
     <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>7-6(5) 2-6 6-2</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>Madison Brengle (USA)</t>
+  </si>
+  <si>
+    <t>0-6 6-3 6-1</t>
   </si>
 </sst>
 </file>
@@ -2677,7 +2689,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2815,7 +2827,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5261,8 +5273,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6390,8 +6402,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7356,7 +7368,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8045,8 +8057,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8588,8 +8600,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9617,20 +9629,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9719,6 +9731,116 @@
       </c>
       <c r="F6" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>758</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>691</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9734,8 +9856,8 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10069,16 +10191,16 @@
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
@@ -10091,7 +10213,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B2:B16)</f>
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C2:C16)</f>
@@ -10099,15 +10221,15 @@
       </c>
       <c r="D17" s="6">
         <f>SUM(D2:D16)</f>
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E17" s="6">
         <f>SUM(E2:E16)</f>
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.49315068493150682</v>
+        <v>0.48979591836734693</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10116,7 +10238,7 @@
       </c>
       <c r="B18" s="6">
         <f>AVERAGE(B2:B16)</f>
-        <v>15.933333333333334</v>
+        <v>16.2</v>
       </c>
       <c r="C18" s="6">
         <f>AVERAGE(C2:C16)</f>
@@ -10124,15 +10246,15 @@
       </c>
       <c r="D18" s="6">
         <f>AVERAGE(D2:D16)</f>
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(E2:E16)</f>
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7">
         <f>(D18-E18)/D18</f>
-        <v>0.49315068493150682</v>
+        <v>0.48979591836734693</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9457" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5FDE1A-4EB3-46E3-B672-333A4DF8C5D8}"/>
+  <xr:revisionPtr revIDLastSave="9464" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46172EF6-E734-4D37-8405-8F64E7B9E440}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="772">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2363,6 +2363,9 @@
   </si>
   <si>
     <t>0-6 6-3 6-1</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
   </si>
 </sst>
 </file>
@@ -2689,7 +2692,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3381,7 +3384,7 @@
                   <c:v>0.59523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8600,8 +8603,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:F72"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9629,10 +9632,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9835,12 +9838,32 @@
         <v>770</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -9857,7 +9880,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10197,14 +10220,14 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10221,7 +10244,7 @@
       </c>
       <c r="D17" s="6">
         <f>SUM(D2:D16)</f>
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E17" s="6">
         <f>SUM(E2:E16)</f>
@@ -10229,7 +10252,7 @@
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.48979591836734693</v>
+        <v>0.49095022624434387</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10246,7 +10269,7 @@
       </c>
       <c r="D18" s="6">
         <f>AVERAGE(D2:D16)</f>
-        <v>29.4</v>
+        <v>29.466666666666665</v>
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(E2:E16)</f>
@@ -10254,7 +10277,7 @@
       </c>
       <c r="F18" s="7">
         <f>(D18-E18)/D18</f>
-        <v>0.48979591836734693</v>
+        <v>0.49095022624434387</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9464" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46172EF6-E734-4D37-8405-8F64E7B9E440}"/>
+  <xr:revisionPtr revIDLastSave="9470" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8EF30F-4C53-4384-906D-06223CBCF6FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="772">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2830,7 +2830,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3384,7 +3384,7 @@
                   <c:v>0.59523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9632,10 +9632,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9865,6 +9865,20 @@
       <c r="D18" t="s">
         <v>771</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9880,7 +9894,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10214,7 +10228,7 @@
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10223,11 +10237,11 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10236,7 +10250,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B2:B16)</f>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C2:C16)</f>
@@ -10248,11 +10262,11 @@
       </c>
       <c r="E17" s="6">
         <f>SUM(E2:E16)</f>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.49095022624434387</v>
+        <v>0.48868778280542985</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10261,7 +10275,7 @@
       </c>
       <c r="B18" s="6">
         <f>AVERAGE(B2:B16)</f>
-        <v>16.2</v>
+        <v>16.266666666666666</v>
       </c>
       <c r="C18" s="6">
         <f>AVERAGE(C2:C16)</f>
@@ -10273,11 +10287,11 @@
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(E2:E16)</f>
-        <v>15</v>
+        <v>15.066666666666666</v>
       </c>
       <c r="F18" s="7">
         <f>(D18-E18)/D18</f>
-        <v>0.49095022624434387</v>
+        <v>0.48868778280542985</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9470" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8EF30F-4C53-4384-906D-06223CBCF6FA}"/>
+  <xr:revisionPtr revIDLastSave="9529" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C72C5C79-6B87-4461-9836-784A04F74155}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="781">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2338,9 +2338,6 @@
     <t>4-6 6-2 7-6(6)</t>
   </si>
   <si>
-    <t>Paula Badosa Gibert (SPAIN)</t>
-  </si>
-  <si>
     <t>Ekaterina Alexandrova (RUSSIA)</t>
   </si>
   <si>
@@ -2366,6 +2363,36 @@
   </si>
   <si>
     <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>Anna Danilina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
+  </si>
+  <si>
+    <t>Kaia Kanepi (ESTONIA)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>7-6(8) 6-4</t>
+  </si>
+  <si>
+    <t>6-1 7-6(7)</t>
+  </si>
+  <si>
+    <t>Camila Giorgi (ITALY)</t>
+  </si>
+  <si>
+    <t>Greet Minnen (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Nastia Pavlyuchenkova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2692,7 +2719,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,7 +2857,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3384,7 +3411,7 @@
                   <c:v>0.59523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8603,8 +8630,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8710,7 +8737,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>780</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -9597,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -9632,10 +9659,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9679,13 +9706,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>763</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9693,7 +9720,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -9713,7 +9740,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -9753,7 +9780,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9787,7 +9814,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9795,7 +9822,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -9835,7 +9862,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9863,7 +9890,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -9878,6 +9905,140 @@
       </c>
       <c r="B20" t="s">
         <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>772</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>773</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>774</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>738</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>752</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>732</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -9893,8 +10054,8 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10228,20 +10389,20 @@
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10250,7 +10411,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B2:B16)</f>
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C2:C16)</f>
@@ -10258,15 +10419,15 @@
       </c>
       <c r="D17" s="6">
         <f>SUM(D2:D16)</f>
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E17" s="6">
         <f>SUM(E2:E16)</f>
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7">
         <f>(D17-E17)/D17</f>
-        <v>0.48868778280542985</v>
+        <v>0.47972972972972971</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10275,7 +10436,7 @@
       </c>
       <c r="B18" s="6">
         <f>AVERAGE(B2:B16)</f>
-        <v>16.266666666666666</v>
+        <v>16.533333333333335</v>
       </c>
       <c r="C18" s="6">
         <f>AVERAGE(C2:C16)</f>
@@ -10283,15 +10444,15 @@
       </c>
       <c r="D18" s="6">
         <f>AVERAGE(D2:D16)</f>
-        <v>29.466666666666665</v>
+        <v>29.6</v>
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(E2:E16)</f>
-        <v>15.066666666666666</v>
+        <v>15.4</v>
       </c>
       <c r="F18" s="7">
         <f>(D18-E18)/D18</f>
-        <v>0.48868778280542985</v>
+        <v>0.47972972972972977</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9529" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C72C5C79-6B87-4461-9836-784A04F74155}"/>
+  <xr:revisionPtr revIDLastSave="9591" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1187248-37E2-45C6-81DF-F4D945323AE8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="790">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2393,6 +2393,33 @@
   </si>
   <si>
     <t>Nastia Pavlyuchenkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Belinda Bencic (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Clara Tauson (DENMARK)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(5)</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>5-7 6-3 7-6(12-10)</t>
+  </si>
+  <si>
+    <t>JAPAN OPEN</t>
+  </si>
+  <si>
+    <t>Despina Papamichail (GREECE)</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2481,16 +2508,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2719,7 +2744,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,7 +2882,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3411,7 +3436,7 @@
                   <c:v>0.59523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.375</c:v>
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,10 +5363,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -5789,7 +5814,7 @@
       <c r="E39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5865,7 +5890,7 @@
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5933,7 +5958,7 @@
       <c r="E51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5947,7 +5972,7 @@
       <c r="E52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6003,7 +6028,7 @@
       <c r="E56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6467,10 +6492,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -6765,7 +6790,7 @@
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6779,7 +6804,7 @@
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6807,7 +6832,7 @@
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8087,7 +8112,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -8122,10 +8147,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -8213,7 +8238,7 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8289,7 +8314,7 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8630,8 +8655,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8665,10 +8690,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>718</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -9080,7 +9105,7 @@
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9117,7 +9142,7 @@
       <c r="F37" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
@@ -9279,7 +9304,7 @@
       <c r="E51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="9" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9659,10 +9684,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" activeCellId="15" sqref="E3 E6 E9 E13 E15 E18 E20 E23 E25 E27 E30 E32 E35 E37 E41 E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9672,7 +9697,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9696,10 +9721,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -10039,6 +10064,148 @@
       </c>
       <c r="D32" t="s">
         <v>779</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>781</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>774</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>782</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>748</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>740</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>783</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>785</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>567</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>787</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>788</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>789</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10054,7 +10221,7 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -10104,11 +10271,11 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="e">
+      <c r="F2" s="7" t="e">
         <f t="shared" ref="F2:F16" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -10126,11 +10293,11 @@
       <c r="E3">
         <v>11</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="T3" s="9"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -10148,7 +10315,7 @@
       <c r="E4">
         <v>8</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>0.61904761904761907</v>
       </c>
@@ -10169,7 +10336,7 @@
       <c r="E5">
         <v>17</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
@@ -10190,7 +10357,7 @@
       <c r="E6">
         <v>25</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
@@ -10211,7 +10378,7 @@
       <c r="E7">
         <v>16</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0.38461538461538464</v>
       </c>
@@ -10232,7 +10399,7 @@
       <c r="E8">
         <v>21</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>0.48780487804878048</v>
       </c>
@@ -10253,7 +10420,7 @@
       <c r="E9">
         <v>19</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0.53658536585365857</v>
       </c>
@@ -10274,7 +10441,7 @@
       <c r="E10">
         <v>20</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
@@ -10295,7 +10462,7 @@
       <c r="E11">
         <v>21</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>0.55319148936170215</v>
       </c>
@@ -10316,7 +10483,7 @@
       <c r="E12">
         <v>20</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>0.39393939393939392</v>
       </c>
@@ -10337,7 +10504,7 @@
       <c r="E13">
         <v>16</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
@@ -10358,7 +10525,7 @@
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>0.69565217391304346</v>
       </c>
@@ -10379,7 +10546,7 @@
       <c r="E15">
         <v>17</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>0.59523809523809523</v>
       </c>
@@ -10389,70 +10556,70 @@
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>-0.375</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>SUM(B2:B16)</f>
-        <v>248</v>
-      </c>
-      <c r="C17" s="6">
+        <v>253</v>
+      </c>
+      <c r="C17" s="5">
         <f>SUM(C2:C16)</f>
         <v>10</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>SUM(D2:D16)</f>
-        <v>444</v>
-      </c>
-      <c r="E17" s="6">
+        <v>448</v>
+      </c>
+      <c r="E17" s="5">
         <f>SUM(E2:E16)</f>
-        <v>231</v>
-      </c>
-      <c r="F17" s="7">
+        <v>236</v>
+      </c>
+      <c r="F17" s="6">
         <f>(D17-E17)/D17</f>
-        <v>0.47972972972972971</v>
+        <v>0.4732142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>AVERAGE(B2:B16)</f>
-        <v>16.533333333333335</v>
-      </c>
-      <c r="C18" s="6">
+        <v>16.866666666666667</v>
+      </c>
+      <c r="C18" s="5">
         <f>AVERAGE(C2:C16)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>AVERAGE(D2:D16)</f>
-        <v>29.6</v>
-      </c>
-      <c r="E18" s="6">
+        <v>29.866666666666667</v>
+      </c>
+      <c r="E18" s="5">
         <f>AVERAGE(E2:E16)</f>
-        <v>15.4</v>
-      </c>
-      <c r="F18" s="7">
+        <v>15.733333333333333</v>
+      </c>
+      <c r="F18" s="6">
         <f>(D18-E18)/D18</f>
-        <v>0.47972972972972977</v>
+        <v>0.47321428571428575</v>
       </c>
     </row>
   </sheetData>
@@ -10561,7 +10728,7 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10815,7 +10982,7 @@
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10937,7 +11104,7 @@
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -10985,7 +11152,7 @@
       <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11123,7 +11290,7 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11185,7 +11352,7 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11199,7 +11366,7 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -11213,7 +11380,7 @@
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -11227,7 +11394,7 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11789,7 +11956,7 @@
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11927,7 +12094,7 @@
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11955,7 +12122,7 @@
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12031,7 +12198,7 @@
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12291,7 +12458,7 @@
       <c r="E56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12531,7 +12698,7 @@
       <c r="E76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12922,7 +13089,7 @@
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -13134,7 +13301,7 @@
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13148,7 +13315,7 @@
       <c r="E43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -14006,7 +14173,7 @@
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -14060,7 +14227,7 @@
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14074,7 +14241,7 @@
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -14142,7 +14309,7 @@
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14156,7 +14323,7 @@
       <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14478,7 +14645,7 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -14506,7 +14673,7 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -14520,7 +14687,7 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14562,7 +14729,7 @@
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -15765,7 +15932,7 @@
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -16175,7 +16342,7 @@
       <c r="E60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -16733,7 +16900,7 @@
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9591" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1187248-37E2-45C6-81DF-F4D945323AE8}"/>
+  <xr:revisionPtr revIDLastSave="9612" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23335D44-80A4-4B37-9A73-F2C0CAB75B7A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="2021" sheetId="28" r:id="rId14"/>
     <sheet name="2022" sheetId="31" r:id="rId15"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId16"/>
-    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId17"/>
+    <sheet name="Wins-Losses" sheetId="32" r:id="rId17"/>
     <sheet name="Winning Percentile Range" sheetId="33" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="795">
   <si>
     <t>Semifinal</t>
   </si>
@@ -460,9 +460,6 @@
     <t>Irina-Camelia Begu (ROMANIA)</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Alizé Cornet (FRANCE)</t>
   </si>
   <si>
@@ -2035,9 +2032,6 @@
     <t>WTA ELITE TROPHY</t>
   </si>
   <si>
-    <t>6-7(4} 6-2 7-6(1)</t>
-  </si>
-  <si>
     <t>3-6 6-3 6-2</t>
   </si>
   <si>
@@ -2125,9 +2119,6 @@
     <t>6-7(4) 7-6(5) 6-4</t>
   </si>
   <si>
-    <t>Alison Riske (USA)</t>
-  </si>
-  <si>
     <t>2-6 6-1 6-3</t>
   </si>
   <si>
@@ -2420,6 +2411,30 @@
   </si>
   <si>
     <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>5-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>6-7(4) 6-2 7-6(1)</t>
+  </si>
+  <si>
+    <t>Katya Makarova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2576,7 +2591,7 @@
               <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Garbiñe Muguruza (SPAIN): YTD Wins-Losses</a:t>
+              <a:t>Garbiñe Muguruza (SPAIN): Wins-Losses</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2882,7 +2897,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,7 +3344,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3436,7 +3450,7 @@
                   <c:v>0.59523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.33333333333333331</c:v>
+                  <c:v>-0.41666666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4938,6 +4952,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5276,7 +5294,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -5285,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -5296,7 +5314,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -5305,7 +5323,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -5328,8 +5346,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:D84"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5379,7 +5397,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5389,13 +5407,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5419,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -5453,7 +5471,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -5467,7 +5485,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -5495,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -5506,7 +5524,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -5529,12 +5547,12 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -5543,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -5557,18 +5575,18 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -5577,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -5588,7 +5606,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -5597,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -5611,13 +5629,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
         <v>608</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5625,13 +5643,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,7 +5663,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,7 +5683,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5673,13 +5691,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5687,18 +5705,18 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>611</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
         <v>612</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -5707,13 +5725,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5747,13 +5765,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5781,7 +5799,7 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5789,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -5823,13 +5841,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5837,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -5851,18 +5869,18 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -5871,13 +5889,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>792</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -5899,13 +5917,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5919,12 +5937,12 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -5953,7 +5971,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -5967,7 +5985,7 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -5995,13 +6013,13 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6057,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
@@ -6071,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -6085,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
@@ -6096,7 +6114,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -6105,7 +6123,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -6125,7 +6143,7 @@
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6133,18 +6151,18 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -6153,7 +6171,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -6167,13 +6185,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6187,7 +6205,7 @@
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6243,7 +6261,7 @@
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -6271,18 +6289,18 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -6291,7 +6309,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -6319,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>21</v>
@@ -6330,7 +6348,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -6339,7 +6357,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>22</v>
@@ -6353,13 +6371,13 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6367,13 +6385,13 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6393,12 +6411,12 @@
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -6435,7 +6453,7 @@
         <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>22</v>
@@ -6455,10 +6473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6502,13 +6520,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6516,7 +6534,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -6525,13 +6543,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>631</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6539,13 +6557,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>790</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6559,7 +6577,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -6573,18 +6591,18 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -6593,7 +6611,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -6627,7 +6645,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6641,7 +6659,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6649,7 +6667,7 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -6660,7 +6678,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -6697,18 +6715,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -6717,13 +6735,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
+        <v>636</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>637</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6734,679 +6752,665 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>640</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>743</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>639</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="D25" t="s">
+        <v>640</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>417</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
       <c r="D26" t="s">
-        <v>641</v>
+        <v>202</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>519</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>8</v>
+      <c r="F27" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F28" t="s">
-        <v>46</v>
+      <c r="F28" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>744</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
         <v>642</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>747</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D37" t="s">
+        <v>790</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>645</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
-        <v>645</v>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>646</v>
-      </c>
-      <c r="B40" t="s">
-        <v>35</v>
-      </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>647</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>649</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>648</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>647</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>115</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>744</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
         <v>42</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>514</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>745</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
         <v>4</v>
       </c>
-      <c r="D47" t="s">
-        <v>747</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>791</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" t="s">
-        <v>229</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
         <v>30</v>
       </c>
-      <c r="D51" t="s">
-        <v>515</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>748</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D60" t="s">
+        <v>514</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>653</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
       <c r="D61" t="s">
-        <v>515</v>
+        <v>592</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>794</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>4</v>
       </c>
-      <c r="D62" t="s">
-        <v>593</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+      <c r="D65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>654</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>657</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>3</v>
       </c>
-      <c r="D63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>236</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>655</v>
-      </c>
-      <c r="B68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4</v>
-      </c>
       <c r="D68" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
+        <v>655</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>659</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>656</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>20</v>
       </c>
-      <c r="C73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>248</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>8</v>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>660</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
       <c r="C76" t="s">
         <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>22</v>
+        <v>655</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>656</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7423,8 +7427,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7459,7 +7463,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7482,13 +7486,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7502,7 +7506,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -7516,13 +7520,13 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7536,7 +7540,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7555,7 +7559,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -7564,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -7592,18 +7596,18 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -7612,13 +7616,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7626,7 +7630,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -7651,7 +7655,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -7660,7 +7664,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -7674,13 +7678,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7694,7 +7698,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7702,7 +7706,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -7722,18 +7726,18 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -7742,13 +7746,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7756,13 +7760,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7770,13 +7774,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7804,24 +7808,24 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7832,7 +7836,7 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7846,13 +7850,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7866,7 +7870,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
@@ -7880,13 +7884,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7900,7 +7904,7 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7914,13 +7918,13 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7928,7 +7932,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -7942,7 +7946,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -7976,7 +7980,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -7987,7 +7991,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8002,7 +8006,7 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8016,18 +8020,18 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>691</v>
+        <v>791</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -8036,18 +8040,18 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8070,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -8090,13 +8094,13 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -8148,7 +8152,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8157,13 +8161,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8173,13 +8177,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8189,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -8205,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -8224,7 +8228,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -8233,7 +8237,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8247,13 +8251,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8261,13 +8265,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8281,13 +8285,13 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8295,13 +8299,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8309,7 +8313,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -8337,7 +8341,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -8351,13 +8355,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8365,18 +8369,18 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -8385,13 +8389,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8399,13 +8403,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8413,18 +8417,18 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -8433,13 +8437,13 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8447,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -8461,7 +8465,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -8481,7 +8485,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8495,7 +8499,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -8509,7 +8513,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -8543,13 +8547,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8557,7 +8561,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -8585,13 +8589,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8605,13 +8609,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8619,7 +8623,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -8633,13 +8637,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -8691,7 +8695,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8700,7 +8704,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -8714,7 +8718,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -8728,7 +8732,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -8739,7 +8743,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -8748,7 +8752,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -8762,7 +8766,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8776,7 +8780,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -8790,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -8810,7 +8814,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8824,7 +8828,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -8838,7 +8842,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -8852,7 +8856,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -8866,18 +8870,18 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -8886,13 +8890,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8900,13 +8904,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8914,7 +8918,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -8934,7 +8938,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8942,7 +8946,7 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -8953,7 +8957,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -8962,7 +8966,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -8976,7 +8980,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -8990,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -9004,13 +9008,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9018,13 +9022,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9032,13 +9036,13 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9052,7 +9056,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
@@ -9066,13 +9070,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9080,18 +9084,18 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -9100,7 +9104,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -9114,13 +9118,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -9134,7 +9138,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -9149,13 +9153,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -9163,7 +9167,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
@@ -9183,7 +9187,7 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
@@ -9194,7 +9198,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -9217,7 +9221,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
@@ -9231,13 +9235,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -9251,7 +9255,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
@@ -9265,7 +9269,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -9279,18 +9283,18 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -9299,7 +9303,7 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -9313,7 +9317,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -9327,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -9341,7 +9345,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -9352,7 +9356,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -9361,18 +9365,18 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -9381,7 +9385,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
@@ -9395,13 +9399,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9415,13 +9419,13 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9429,7 +9433,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -9440,7 +9444,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -9449,7 +9453,7 @@
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9457,18 +9461,18 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -9477,7 +9481,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
@@ -9497,7 +9501,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9505,7 +9509,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -9519,13 +9523,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9533,18 +9537,18 @@
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -9553,18 +9557,18 @@
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -9573,13 +9577,13 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,7 +9591,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>21</v>
@@ -9598,7 +9602,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -9613,7 +9617,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9621,13 +9625,13 @@
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9635,7 +9639,7 @@
         <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -9649,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -9663,7 +9667,7 @@
         <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -9684,10 +9688,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" activeCellId="15" sqref="E3 E6 E9 E13 E15 E18 E20 E23 E25 E27 E30 E32 E35 E37 E41 E44"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" activeCellId="16" sqref="E3 E6 E9 E13 E15 E18 E20 E23 E25 E27 E30 E32 E35 E37 E41 E44 E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9722,7 +9726,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -9731,13 +9735,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9745,7 +9749,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -9765,7 +9769,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -9779,7 +9783,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -9790,7 +9794,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9799,13 +9803,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9813,18 +9817,18 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -9839,7 +9843,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9847,7 +9851,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -9861,7 +9865,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -9872,7 +9876,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -9881,13 +9885,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>691</v>
+        <v>791</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9901,7 +9905,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -9915,7 +9919,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -9935,18 +9939,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -9955,7 +9959,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -9969,13 +9973,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9989,18 +9993,18 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -10009,18 +10013,18 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -10029,13 +10033,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10043,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -10063,7 +10067,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
@@ -10074,7 +10078,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -10083,7 +10087,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -10097,7 +10101,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -10108,7 +10112,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -10117,7 +10121,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -10137,13 +10141,13 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10151,7 +10155,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -10165,18 +10169,18 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -10185,7 +10189,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -10199,13 +10203,33 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>787</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>788</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -10221,8 +10245,8 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10237,22 +10261,22 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -10556,7 +10580,7 @@
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10565,11 +10589,11 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>-0.41666666666666669</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10578,7 +10602,7 @@
       </c>
       <c r="B17" s="5">
         <f>SUM(B2:B16)</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C17" s="5">
         <f>SUM(C2:C16)</f>
@@ -10590,20 +10614,20 @@
       </c>
       <c r="E17" s="5">
         <f>SUM(E2:E16)</f>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F17" s="6">
         <f>(D17-E17)/D17</f>
-        <v>0.4732142857142857</v>
+        <v>0.47098214285714285</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B18" s="5">
         <f>AVERAGE(B2:B16)</f>
-        <v>16.866666666666667</v>
+        <v>16.933333333333334</v>
       </c>
       <c r="C18" s="5">
         <f>AVERAGE(C2:C16)</f>
@@ -10615,11 +10639,11 @@
       </c>
       <c r="E18" s="5">
         <f>AVERAGE(E2:E16)</f>
-        <v>15.733333333333333</v>
+        <v>15.8</v>
       </c>
       <c r="F18" s="6">
         <f>(D18-E18)/D18</f>
-        <v>0.47321428571428575</v>
+        <v>0.47098214285714285</v>
       </c>
     </row>
   </sheetData>
@@ -10680,7 +10704,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -10689,7 +10713,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -10700,7 +10724,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -10709,7 +10733,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -10723,7 +10747,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -10737,7 +10761,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -10751,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -10765,7 +10789,7 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -10776,7 +10800,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -10785,7 +10809,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -10799,13 +10823,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10813,7 +10837,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -10827,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -10838,7 +10862,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -10847,7 +10871,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -10858,7 +10882,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -10867,18 +10891,18 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
         <v>279</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -10887,7 +10911,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -10901,7 +10925,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -10915,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -10929,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -10940,7 +10964,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -10949,7 +10973,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -10963,13 +10987,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10977,7 +11001,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -10991,18 +11015,18 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -11011,18 +11035,18 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -11031,7 +11055,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -11045,13 +11069,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>294</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11059,7 +11083,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
@@ -11070,7 +11094,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -11079,7 +11103,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -11090,7 +11114,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -11099,7 +11123,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -11113,7 +11137,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -11127,18 +11151,18 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -11147,7 +11171,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -11161,7 +11185,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -11175,7 +11199,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -11189,13 +11213,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -11203,13 +11227,13 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -11262,7 +11286,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -11271,7 +11295,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -11285,7 +11309,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -11299,7 +11323,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -11313,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -11327,18 +11351,18 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -11347,7 +11371,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -11361,7 +11385,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -11375,7 +11399,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -11389,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -11403,18 +11427,18 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -11423,13 +11447,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
         <v>318</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11437,18 +11461,18 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -11457,7 +11481,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -11471,13 +11495,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>322</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11485,7 +11509,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -11496,7 +11520,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -11505,13 +11529,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>326</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11530,7 +11554,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -11539,7 +11563,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -11553,13 +11577,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11567,7 +11591,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -11581,7 +11605,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -11595,7 +11619,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -11620,7 +11644,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -11629,13 +11653,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
         <v>336</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11643,7 +11667,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
@@ -11657,7 +11681,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -11671,18 +11695,18 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -11691,7 +11715,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
@@ -11702,7 +11726,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -11711,7 +11735,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -11725,13 +11749,13 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
+        <v>344</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
         <v>345</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -11784,7 +11808,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -11793,7 +11817,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -11804,7 +11828,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -11813,7 +11837,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -11827,7 +11851,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -11841,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -11852,7 +11876,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -11861,13 +11885,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>352</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11875,7 +11899,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -11889,7 +11913,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -11903,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -11917,7 +11941,7 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -11928,7 +11952,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -11937,7 +11961,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -11951,7 +11975,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -11965,13 +11989,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11979,13 +12003,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
         <v>361</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11993,7 +12017,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -12004,7 +12028,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -12013,7 +12037,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -12027,7 +12051,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -12041,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -12055,18 +12079,18 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
         <v>366</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -12075,7 +12099,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -12089,7 +12113,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -12103,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -12117,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -12131,7 +12155,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
@@ -12142,7 +12166,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -12151,7 +12175,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -12165,13 +12189,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>373</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -12179,13 +12203,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -12193,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -12207,18 +12231,18 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -12227,7 +12251,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -12238,7 +12262,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -12247,7 +12271,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
@@ -12261,13 +12285,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -12275,13 +12299,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -12289,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -12303,7 +12327,7 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -12314,7 +12338,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -12323,7 +12347,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -12337,7 +12361,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -12351,18 +12375,18 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -12371,7 +12395,7 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
@@ -12385,7 +12409,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
@@ -12410,7 +12434,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -12419,13 +12443,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -12433,18 +12457,18 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
+        <v>388</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
         <v>389</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -12453,7 +12477,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -12467,7 +12491,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -12481,7 +12505,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -12492,7 +12516,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
@@ -12501,7 +12525,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -12521,7 +12545,7 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -12529,13 +12553,13 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -12543,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -12557,7 +12581,7 @@
         <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -12568,7 +12592,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -12577,18 +12601,18 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
@@ -12597,7 +12621,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -12611,7 +12635,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
@@ -12625,18 +12649,18 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -12645,13 +12669,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -12659,7 +12683,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>22</v>
@@ -12673,7 +12697,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>21</v>
@@ -12684,7 +12708,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -12693,7 +12717,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>22</v>
@@ -12707,7 +12731,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>22</v>
@@ -12721,7 +12745,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -12735,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -12749,13 +12773,13 @@
         <v>51</v>
       </c>
       <c r="D80" t="s">
+        <v>407</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
         <v>408</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" t="s">
-        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -12807,7 +12831,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -12816,7 +12840,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -12830,13 +12854,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12844,7 +12868,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -12858,7 +12882,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -12878,13 +12902,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12892,7 +12916,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -12912,12 +12936,12 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -12926,7 +12950,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -12937,7 +12961,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -12946,7 +12970,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -12960,7 +12984,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -12971,7 +12995,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -12980,18 +13004,18 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -13000,7 +13024,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -13014,7 +13038,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -13028,13 +13052,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -13042,13 +13066,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13056,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -13084,7 +13108,7 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -13110,7 +13134,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -13138,7 +13162,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -13157,7 +13181,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -13166,7 +13190,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -13186,12 +13210,12 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -13200,7 +13224,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -13214,13 +13238,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13228,13 +13252,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13242,13 +13266,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13296,7 +13320,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -13324,18 +13348,18 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -13344,7 +13368,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -13358,7 +13382,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
@@ -13369,7 +13393,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -13378,13 +13402,13 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13412,7 +13436,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -13423,7 +13447,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -13432,18 +13456,18 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -13452,7 +13476,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -13466,7 +13490,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -13480,13 +13504,13 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13494,13 +13518,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13508,18 +13532,18 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
@@ -13528,7 +13552,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -13542,13 +13566,13 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13562,18 +13586,18 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -13582,7 +13606,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -13596,13 +13620,13 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13610,13 +13634,13 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
+        <v>454</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
         <v>455</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13636,12 +13660,12 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -13656,12 +13680,12 @@
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -13670,13 +13694,13 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13684,7 +13708,7 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>21</v>
@@ -13704,7 +13728,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>21</v>
@@ -13715,7 +13739,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -13724,13 +13748,13 @@
         <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -13738,7 +13762,7 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -13758,12 +13782,12 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -13772,18 +13796,18 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
+        <v>465</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
         <v>466</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -13792,13 +13816,13 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -13851,7 +13875,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -13860,18 +13884,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -13880,7 +13904,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -13894,7 +13918,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -13914,7 +13938,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -13934,7 +13958,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -13942,7 +13966,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -13962,7 +13986,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -13982,12 +14006,12 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -13996,7 +14020,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -14007,7 +14031,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -14016,7 +14040,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -14036,12 +14060,12 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -14050,7 +14074,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -14064,7 +14088,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -14078,13 +14102,13 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14098,7 +14122,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14120,7 +14144,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
@@ -14140,13 +14164,13 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -14154,13 +14178,13 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -14188,12 +14212,12 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -14202,18 +14226,18 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -14222,7 +14246,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -14236,7 +14260,7 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -14250,7 +14274,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -14270,7 +14294,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -14284,7 +14308,7 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
@@ -14304,7 +14328,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -14332,13 +14356,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14357,7 +14381,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -14366,7 +14390,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -14392,7 +14416,7 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -14411,7 +14435,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
@@ -14420,13 +14444,13 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -14434,7 +14458,7 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -14454,7 +14478,7 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -14462,7 +14486,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -14510,7 +14534,7 @@
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -14530,7 +14554,7 @@
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -14583,7 +14607,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -14606,13 +14630,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>501</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14620,7 +14644,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -14631,7 +14655,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -14640,7 +14664,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -14654,7 +14678,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -14668,7 +14692,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -14682,7 +14706,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -14696,7 +14720,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -14724,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -14758,13 +14782,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
+        <v>507</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
         <v>508</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -14772,7 +14796,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -14792,7 +14816,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14811,7 +14835,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -14820,18 +14844,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>511</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -14840,13 +14864,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14854,7 +14878,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -14868,13 +14892,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -14882,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -14902,12 +14926,12 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -14916,7 +14940,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
@@ -14936,18 +14960,18 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
+        <v>519</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
         <v>520</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -14956,18 +14980,18 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -14976,7 +15000,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -15004,7 +15028,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
@@ -15018,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -15044,7 +15068,7 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -15058,7 +15082,7 @@
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -15072,7 +15096,7 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -15092,7 +15116,7 @@
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -15106,13 +15130,13 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -15120,7 +15144,7 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -15134,7 +15158,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
@@ -15148,7 +15172,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -15168,12 +15192,12 @@
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -15182,7 +15206,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -15196,7 +15220,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -15210,13 +15234,13 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -15230,13 +15254,13 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -15256,7 +15280,7 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -15278,7 +15302,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
@@ -15289,7 +15313,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -15298,13 +15322,13 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
+        <v>535</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>536</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -15318,12 +15342,12 @@
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -15332,7 +15356,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -15343,7 +15367,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -15358,7 +15382,7 @@
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -15372,7 +15396,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -15380,13 +15404,13 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -15406,12 +15430,12 @@
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -15426,7 +15450,7 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -15440,7 +15464,7 @@
         <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -15448,13 +15472,13 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -15468,12 +15492,12 @@
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -15482,13 +15506,13 @@
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -15502,7 +15526,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -15516,7 +15540,7 @@
         <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -15536,12 +15560,12 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -15550,7 +15574,7 @@
         <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>22</v>
@@ -15570,7 +15594,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -15650,7 +15674,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -15679,7 +15703,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15687,13 +15711,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15727,7 +15751,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -15741,7 +15765,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -15749,7 +15773,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -15760,7 +15784,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -15777,7 +15801,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -15788,7 +15812,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -15797,13 +15821,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15845,7 +15869,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15859,12 +15883,12 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -15879,12 +15903,12 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -15893,7 +15917,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -15927,7 +15951,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -15947,12 +15971,12 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -15981,12 +16005,12 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -15995,7 +16019,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -16009,13 +16033,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -16029,7 +16053,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -16049,7 +16073,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -16063,13 +16087,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -16077,7 +16101,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -16091,13 +16115,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16125,12 +16149,12 @@
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -16150,7 +16174,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
@@ -16159,13 +16183,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -16173,13 +16197,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -16213,7 +16237,7 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -16221,13 +16245,13 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -16269,7 +16293,7 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16277,7 +16301,7 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -16288,7 +16312,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -16297,7 +16321,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
@@ -16308,7 +16332,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -16317,13 +16341,13 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -16337,7 +16361,7 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -16351,18 +16375,18 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -16391,12 +16415,12 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -16425,7 +16449,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -16433,7 +16457,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -16447,13 +16471,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -16467,7 +16491,7 @@
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -16481,7 +16505,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
@@ -16501,7 +16525,7 @@
         <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -16509,7 +16533,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -16529,7 +16553,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -16548,7 +16572,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -16563,7 +16587,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -16571,7 +16595,7 @@
         <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -16585,13 +16609,13 @@
         <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
@@ -16605,7 +16629,7 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -16666,13 +16690,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>569</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16686,7 +16710,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -16725,7 +16749,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -16742,7 +16766,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -16753,7 +16777,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -16768,12 +16792,12 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -16782,7 +16806,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -16802,7 +16826,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -16816,12 +16840,12 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -16856,7 +16880,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -16864,7 +16888,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -16884,12 +16908,12 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -16912,12 +16936,12 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -16940,13 +16964,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -16960,13 +16984,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -16974,13 +16998,13 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -17008,7 +17032,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -17036,13 +17060,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17056,13 +17080,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -17070,7 +17094,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -17084,7 +17108,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
@@ -17112,7 +17136,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -17126,7 +17150,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -17140,7 +17164,7 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -17151,7 +17175,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
@@ -17180,13 +17204,13 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -17194,7 +17218,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>21</v>
@@ -17205,7 +17229,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -17214,7 +17238,7 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
@@ -17228,7 +17252,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -17242,7 +17266,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -17253,7 +17277,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -17262,7 +17286,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
@@ -17276,7 +17300,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>22</v>
@@ -17324,13 +17348,13 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
+        <v>582</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
         <v>583</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -17338,7 +17362,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
@@ -17349,7 +17373,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -17358,7 +17382,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -17372,18 +17396,18 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
+        <v>585</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
         <v>586</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -17398,7 +17422,7 @@
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -17418,7 +17442,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -17426,13 +17450,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
+        <v>588</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s">
         <v>589</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -17440,7 +17464,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>21</v>
@@ -17451,7 +17475,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
@@ -17460,7 +17484,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>22</v>
@@ -17474,7 +17498,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
@@ -17488,18 +17512,18 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
+        <v>592</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
         <v>593</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -17508,13 +17532,13 @@
         <v>63</v>
       </c>
       <c r="D75" t="s">
+        <v>596</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
         <v>597</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -17528,7 +17552,7 @@
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -17542,7 +17566,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9612" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23335D44-80A4-4B37-9A73-F2C0CAB75B7A}"/>
+  <xr:revisionPtr revIDLastSave="9678" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61D6CC2B-04AD-482D-B255-415CBE38658C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="2020" sheetId="27" r:id="rId13"/>
     <sheet name="2021" sheetId="28" r:id="rId14"/>
     <sheet name="2022" sheetId="31" r:id="rId15"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId16"/>
-    <sheet name="Wins-Losses" sheetId="32" r:id="rId17"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId18"/>
+    <sheet name="2023" sheetId="34" r:id="rId16"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId18"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="801">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2435,6 +2436,24 @@
   </si>
   <si>
     <t>Katya Makarova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(3) 6-1</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>LYON OPEN</t>
+  </si>
+  <si>
+    <t>0-6 7-6(3) 6-1 </t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -2588,11 +2607,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1" i="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Garbiñe Muguruza (SPAIN): Wins-Losses</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2658,10 +2678,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
                 </c:pt>
@@ -2707,15 +2727,18 @@
                 <c:pt idx="14">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$16</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2761,12 +2784,15 @@
                 <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A35-420C-A5B5-8A86E4A1ABA7}"/>
+              <c16:uniqueId val="{00000000-6CD8-4161-AD8E-760F9BA821D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2796,10 +2822,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
                 </c:pt>
@@ -2845,15 +2871,18 @@
                 <c:pt idx="14">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$16</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2899,12 +2928,15 @@
                 <c:pt idx="14">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A35-420C-A5B5-8A86E4A1ABA7}"/>
+              <c16:uniqueId val="{00000001-6CD8-4161-AD8E-760F9BA821D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2918,11 +2950,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2133204384"/>
-        <c:axId val="2133200224"/>
+        <c:axId val="1141066128"/>
+        <c:axId val="1141064048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133204384"/>
+        <c:axId val="1141066128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +3052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133200224"/>
+        <c:crossAx val="1141064048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3028,7 +3060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133200224"/>
+        <c:axId val="1141064048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133204384"/>
+        <c:crossAx val="1141066128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3243,20 +3275,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1" i="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Garbiñe Muguruza</a:t>
+              <a:t>Garbiñe Muguruza (SPAIN): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> (SPAIN): Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1" i="0">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3349,10 +3373,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
                 </c:pt>
@@ -3398,15 +3422,18 @@
                 <c:pt idx="14">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$16</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3452,13 +3479,16 @@
                 <c:pt idx="14">
                   <c:v>-0.41666666666666669</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BD5-4449-8569-E8C243DA5303}"/>
+              <c16:uniqueId val="{00000000-847A-4A3E-B612-51E7093DE8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3472,11 +3502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133203136"/>
-        <c:axId val="2133197728"/>
+        <c:axId val="1141086208"/>
+        <c:axId val="1141073728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133203136"/>
+        <c:axId val="1141086208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133197728"/>
+        <c:crossAx val="1141073728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3582,7 +3612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133197728"/>
+        <c:axId val="1141073728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3688,7 +3718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133203136"/>
+        <c:crossAx val="1141086208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4347,7 +4377,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4455,11 +4485,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4470,11 +4495,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4506,9 +4526,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4863,7 +4880,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6DBA1FFD-73E1-4BBB-9B0D-1D7556433E0B}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FA930977-AF80-4F20-BC99-E68F08D324AE}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4875,14 +4892,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F45230E6-E654-4546-8C1D-E661495B1D78}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6073F10A-5E22-4D75-8587-9171F08B9A20}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -4890,13 +4906,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8570360" cy="5830584"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803CEBA9-E9E1-42E1-BA0B-768B0EDB6F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597B573B-BD4A-78ED-4928-9301D0D94089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4923,13 +4939,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030E1CDE-41FF-42D0-AD91-711B39C60390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D992F7-2A1F-BCE9-A885-3C4435C09E59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5262,17 +5278,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5292,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -5312,7 +5328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>261</v>
       </c>
@@ -5350,17 +5366,17 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5380,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -5400,7 +5416,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -5416,7 +5432,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -5432,7 +5448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5446,7 +5462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5466,7 +5482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -5480,7 +5496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5494,7 +5510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5508,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5522,7 +5538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -5539,7 +5555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>99</v>
       </c>
@@ -5550,7 +5566,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -5570,7 +5586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5584,7 +5600,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -5604,7 +5620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>755</v>
       </c>
@@ -5624,7 +5640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -5638,7 +5654,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -5652,7 +5668,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5666,7 +5682,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -5686,7 +5702,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -5700,7 +5716,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5714,7 +5730,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -5734,7 +5750,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -5754,7 +5770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5774,7 +5790,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -5788,7 +5804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -5802,7 +5818,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -5816,7 +5832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5836,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5850,7 +5866,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5864,7 +5880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5878,7 +5894,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -5898,7 +5914,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -5912,7 +5928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -5926,7 +5942,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -5940,7 +5956,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -5960,7 +5976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -5980,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -5994,7 +6010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6022,7 +6038,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6036,7 +6052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>51</v>
       </c>
@@ -6064,7 +6080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6084,7 +6100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6098,7 +6114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -6112,7 +6128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>743</v>
       </c>
@@ -6132,7 +6148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -6146,7 +6162,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -6160,7 +6176,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>745</v>
       </c>
@@ -6180,7 +6196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6194,7 +6210,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6208,7 +6224,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6222,7 +6238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>51</v>
       </c>
@@ -6236,7 +6252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -6256,7 +6272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>30</v>
       </c>
@@ -6270,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -6284,7 +6300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -6298,7 +6314,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -6318,7 +6334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -6332,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -6346,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -6366,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -6380,7 +6396,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -6394,7 +6410,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -6414,7 +6430,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -6434,7 +6450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>63</v>
       </c>
@@ -6448,7 +6464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>63</v>
       </c>
@@ -6475,21 +6491,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6509,7 +6525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -6529,10 +6545,10 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -6552,7 +6568,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6566,7 +6582,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6586,7 +6602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6600,7 +6616,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -6620,7 +6636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6634,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6648,7 +6664,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -6662,7 +6678,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -6676,7 +6692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -6696,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -6710,7 +6726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -6724,7 +6740,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>755</v>
       </c>
@@ -6744,7 +6760,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -6764,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6778,7 +6794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>416</v>
       </c>
@@ -6798,7 +6814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -6812,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6826,7 +6842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -6840,7 +6856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -6854,7 +6870,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>185</v>
       </c>
@@ -6874,7 +6890,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -6894,7 +6910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6908,7 +6924,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6922,7 +6938,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -6942,7 +6958,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>645</v>
       </c>
@@ -6962,7 +6978,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -6976,7 +6992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -6990,7 +7006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -7004,7 +7020,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -7018,7 +7034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -7032,7 +7048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -7052,7 +7068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -7066,7 +7082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -7086,7 +7102,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -7100,7 +7116,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>745</v>
       </c>
@@ -7120,7 +7136,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -7140,7 +7156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>30</v>
       </c>
@@ -7154,7 +7170,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -7174,7 +7190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -7188,7 +7204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>151</v>
       </c>
@@ -7208,7 +7224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -7222,7 +7238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -7236,7 +7252,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -7256,7 +7272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -7270,7 +7286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>654</v>
       </c>
@@ -7290,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7304,7 +7320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7318,7 +7334,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7332,7 +7348,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>170</v>
       </c>
@@ -7352,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7366,7 +7382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>659</v>
       </c>
@@ -7386,7 +7402,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -7400,7 +7416,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -7431,17 +7447,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7461,7 +7477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7481,7 +7497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7495,7 +7511,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7515,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -7529,7 +7545,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7543,7 +7559,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7557,7 +7573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>664</v>
       </c>
@@ -7577,7 +7593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7591,7 +7607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7605,7 +7621,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -7625,7 +7641,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7639,7 +7655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7653,7 +7669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>755</v>
       </c>
@@ -7673,7 +7689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -7687,7 +7703,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -7701,7 +7717,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -7715,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -7735,7 +7751,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>416</v>
       </c>
@@ -7755,7 +7771,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7769,7 +7785,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -7783,7 +7799,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -7797,7 +7813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -7811,7 +7827,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -7828,7 +7844,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>119</v>
       </c>
@@ -7839,7 +7855,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -7859,7 +7875,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -7879,7 +7895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -7893,7 +7909,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7907,7 +7923,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7927,7 +7943,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -7941,7 +7957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -7955,7 +7971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7969,7 +7985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -7989,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>745</v>
       </c>
@@ -8009,7 +8025,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -8029,7 +8045,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>174</v>
       </c>
@@ -8049,7 +8065,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -8069,7 +8085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8083,7 +8099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -8120,17 +8136,17 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8150,7 +8166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -8170,7 +8186,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8186,7 +8202,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -8202,7 +8218,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -8218,7 +8234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8226,7 +8242,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>470</v>
       </c>
@@ -8246,7 +8262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8260,7 +8276,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8274,7 +8290,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8294,7 +8310,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -8308,7 +8324,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -8322,7 +8338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -8336,7 +8352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8350,7 +8366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -8364,7 +8380,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -8378,7 +8394,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -8398,7 +8414,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -8412,7 +8428,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -8426,7 +8442,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -8446,7 +8462,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8460,7 +8476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8474,7 +8490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -8488,7 +8504,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -8508,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -8522,7 +8538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8542,7 +8558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -8556,7 +8572,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -8570,7 +8586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -8584,7 +8600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -8598,7 +8614,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8618,7 +8634,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -8632,7 +8648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -8659,21 +8675,21 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8693,7 +8709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>715</v>
       </c>
@@ -8713,7 +8729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -8727,7 +8743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8741,7 +8757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -8761,7 +8777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8775,7 +8791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8789,7 +8805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -8803,7 +8819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>51</v>
       </c>
@@ -8817,7 +8833,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -8837,7 +8853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -8851,7 +8867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -8865,7 +8881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8879,7 +8895,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -8899,7 +8915,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8913,7 +8929,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8927,7 +8943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8941,7 +8957,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -8955,7 +8971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -8975,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8989,7 +9005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -9003,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -9017,7 +9033,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -9031,7 +9047,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -9045,7 +9061,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -9065,7 +9081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9079,7 +9095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9093,7 +9109,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -9113,7 +9129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9127,7 +9143,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -9148,7 +9164,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -9162,7 +9178,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9176,7 +9192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9196,7 +9212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>735</v>
       </c>
@@ -9216,7 +9232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9230,7 +9246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9244,7 +9260,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9264,7 +9280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -9278,7 +9294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9292,7 +9308,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>579</v>
       </c>
@@ -9312,7 +9328,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9326,7 +9342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9340,7 +9356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9354,7 +9370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>743</v>
       </c>
@@ -9374,7 +9390,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>745</v>
       </c>
@@ -9394,7 +9410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -9408,7 +9424,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9428,7 +9444,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -9442,7 +9458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>750</v>
       </c>
@@ -9456,7 +9472,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -9470,7 +9486,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>751</v>
       </c>
@@ -9490,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9504,7 +9520,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -9518,7 +9534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -9532,7 +9548,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -9546,7 +9562,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>755</v>
       </c>
@@ -9566,7 +9582,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>756</v>
       </c>
@@ -9586,7 +9602,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9600,7 +9616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -9620,7 +9636,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>63</v>
       </c>
@@ -9634,7 +9650,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -9648,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -9662,7 +9678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>51</v>
       </c>
@@ -9690,21 +9706,21 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E46" activeCellId="16" sqref="E3 E6 E9 E13 E15 E18 E20 E23 E25 E27 E30 E32 E35 E37 E41 E44 E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9724,7 +9740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -9744,7 +9760,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -9758,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -9778,7 +9794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -9792,7 +9808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -9812,7 +9828,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -9826,7 +9842,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -9846,7 +9862,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -9860,7 +9876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9874,7 +9890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>755</v>
       </c>
@@ -9894,7 +9910,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -9914,7 +9930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -9928,7 +9944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -9948,7 +9964,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>522</v>
       </c>
@@ -9968,7 +9984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9982,7 +9998,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -10002,7 +10018,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>735</v>
       </c>
@@ -10022,7 +10038,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -10042,7 +10058,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -10056,7 +10072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -10076,7 +10092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>778</v>
       </c>
@@ -10096,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10110,7 +10126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>745</v>
       </c>
@@ -10130,7 +10146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -10150,7 +10166,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -10164,7 +10180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10178,7 +10194,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>784</v>
       </c>
@@ -10198,7 +10214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10212,7 +10228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>787</v>
       </c>
@@ -10239,27 +10255,154 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81895B53-2C2D-47BC-86BB-A8AF82CD2704}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>779</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>798</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A17 F1:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -10279,7 +10422,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -10296,12 +10439,12 @@
         <v>2</v>
       </c>
       <c r="F2" s="7" t="e">
-        <f t="shared" ref="F2:F16" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -10323,7 +10466,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -10344,7 +10487,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -10365,7 +10508,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -10386,7 +10529,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -10407,7 +10550,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -10428,7 +10571,7 @@
         <v>0.48780487804878048</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -10449,7 +10592,7 @@
         <v>0.53658536585365857</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -10470,7 +10613,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -10491,7 +10634,7 @@
         <v>0.55319148936170215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -10512,7 +10655,7 @@
         <v>0.39393939393939392</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -10533,7 +10676,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -10554,7 +10697,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -10575,7 +10718,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -10596,58 +10739,79 @@
         <v>-0.41666666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2023</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="5">
-        <f>SUM(B2:B16)</f>
-        <v>254</v>
-      </c>
-      <c r="C17" s="5">
-        <f>SUM(C2:C16)</f>
+      <c r="B18" s="5">
+        <f>SUM(B2:B17)</f>
+        <v>258</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUM(C2:C17)</f>
         <v>10</v>
       </c>
-      <c r="D17" s="5">
-        <f>SUM(D2:D16)</f>
+      <c r="D18" s="5">
+        <f>SUM(D2:D17)</f>
         <v>448</v>
       </c>
-      <c r="E17" s="5">
-        <f>SUM(E2:E16)</f>
-        <v>237</v>
-      </c>
-      <c r="F17" s="6">
-        <f>(D17-E17)/D17</f>
-        <v>0.47098214285714285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B18" s="5">
-        <f>AVERAGE(B2:B16)</f>
-        <v>16.933333333333334</v>
-      </c>
-      <c r="C18" s="5">
-        <f>AVERAGE(C2:C16)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D18" s="5">
-        <f>AVERAGE(D2:D16)</f>
-        <v>29.866666666666667</v>
-      </c>
       <c r="E18" s="5">
-        <f>AVERAGE(E2:E16)</f>
-        <v>15.8</v>
+        <f>SUM(E2:E17)</f>
+        <v>241</v>
       </c>
       <c r="F18" s="6">
         <f>(D18-E18)/D18</f>
-        <v>0.47098214285714285</v>
+        <v>0.46205357142857145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B19" s="5">
+        <f>AVERAGE(B2:B17)</f>
+        <v>16.125</v>
+      </c>
+      <c r="C19" s="5">
+        <f>AVERAGE(C2:C17)</f>
+        <v>0.625</v>
+      </c>
+      <c r="D19" s="5">
+        <f>AVERAGE(D2:D17)</f>
+        <v>28</v>
+      </c>
+      <c r="E19" s="5">
+        <f>AVERAGE(E2:E17)</f>
+        <v>15.0625</v>
+      </c>
+      <c r="F19" s="6">
+        <f>(D19-E19)/D19</f>
+        <v>0.46205357142857145</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F16">
+  <conditionalFormatting sqref="F2:F17">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -10672,17 +10836,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10702,7 +10866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -10722,7 +10886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>265</v>
       </c>
@@ -10742,7 +10906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10756,7 +10920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10770,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -10784,7 +10948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -10798,7 +10962,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>265</v>
       </c>
@@ -10818,7 +10982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10832,7 +10996,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -10846,7 +11010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -10860,7 +11024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>275</v>
       </c>
@@ -10880,7 +11044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>277</v>
       </c>
@@ -10900,7 +11064,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>280</v>
       </c>
@@ -10920,7 +11084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -10934,7 +11098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -10948,7 +11112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -10962,7 +11126,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>261</v>
       </c>
@@ -10982,7 +11146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -10996,7 +11160,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11010,7 +11174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11024,7 +11188,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>289</v>
       </c>
@@ -11044,7 +11208,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -11064,7 +11228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11078,7 +11242,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11092,7 +11256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>291</v>
       </c>
@@ -11112,7 +11276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>296</v>
       </c>
@@ -11132,7 +11296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11146,7 +11310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11160,7 +11324,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -11180,7 +11344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -11194,7 +11358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -11208,7 +11372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -11222,7 +11386,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -11254,17 +11418,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11284,7 +11448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -11304,7 +11468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11318,7 +11482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11332,7 +11496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11346,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -11360,7 +11524,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -11380,7 +11544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -11394,7 +11558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -11408,7 +11572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11422,7 +11586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -11436,7 +11600,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -11456,7 +11620,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -11470,7 +11634,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>320</v>
       </c>
@@ -11490,7 +11654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -11504,7 +11668,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11518,7 +11682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>324</v>
       </c>
@@ -11538,7 +11702,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11552,7 +11716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>327</v>
       </c>
@@ -11572,7 +11736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -11586,7 +11750,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -11600,7 +11764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -11614,7 +11778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -11628,7 +11792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -11642,7 +11806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>334</v>
       </c>
@@ -11662,7 +11826,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -11676,7 +11840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11690,7 +11854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11704,7 +11868,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -11724,7 +11888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -11744,7 +11908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>7</v>
       </c>
@@ -11776,17 +11940,17 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11806,7 +11970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>346</v>
       </c>
@@ -11826,7 +11990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -11846,7 +12010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11860,7 +12024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -11874,7 +12038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -11894,7 +12058,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -11908,7 +12072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -11922,7 +12086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11936,7 +12100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -11950,7 +12114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>356</v>
       </c>
@@ -11970,7 +12134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -11984,7 +12148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -11998,7 +12162,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12012,7 +12176,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -12026,7 +12190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>263</v>
       </c>
@@ -12046,7 +12210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12060,7 +12224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12074,7 +12238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12088,7 +12252,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>367</v>
       </c>
@@ -12108,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -12122,7 +12286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -12136,7 +12300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -12150,7 +12314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -12164,7 +12328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>371</v>
       </c>
@@ -12184,7 +12348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -12198,7 +12362,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -12212,7 +12376,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -12226,7 +12390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>51</v>
       </c>
@@ -12240,7 +12404,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>375</v>
       </c>
@@ -12260,7 +12424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>376</v>
       </c>
@@ -12280,7 +12444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -12294,7 +12458,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12308,7 +12472,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12322,7 +12486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -12336,7 +12500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -12356,7 +12520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12370,7 +12534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12384,7 +12548,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>327</v>
       </c>
@@ -12404,7 +12568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -12418,7 +12582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -12432,7 +12596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>386</v>
       </c>
@@ -12452,7 +12616,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -12466,7 +12630,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -12486,7 +12650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12500,7 +12664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12514,7 +12678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>155</v>
       </c>
@@ -12534,7 +12698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -12548,7 +12712,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -12562,7 +12726,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -12576,7 +12740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>51</v>
       </c>
@@ -12590,7 +12754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>396</v>
       </c>
@@ -12610,7 +12774,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>398</v>
       </c>
@@ -12630,7 +12794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -12644,7 +12808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -12658,7 +12822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>399</v>
       </c>
@@ -12678,7 +12842,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -12692,7 +12856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -12706,7 +12870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>403</v>
       </c>
@@ -12726,7 +12890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -12740,7 +12904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12754,7 +12918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12768,7 +12932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>51</v>
       </c>
@@ -12799,17 +12963,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12829,7 +12993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>409</v>
       </c>
@@ -12849,7 +13013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -12863,7 +13027,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -12877,7 +13041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12891,7 +13055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -12911,7 +13075,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -12925,7 +13089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -12939,7 +13103,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>416</v>
       </c>
@@ -12959,7 +13123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>417</v>
       </c>
@@ -12979,7 +13143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -12993,7 +13157,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>419</v>
       </c>
@@ -13013,7 +13177,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>422</v>
       </c>
@@ -13033,7 +13197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -13047,7 +13211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -13061,7 +13225,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -13075,7 +13239,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -13089,7 +13253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13103,7 +13267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -13117,7 +13281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -13137,7 +13301,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -13151,7 +13315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -13165,7 +13329,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -13179,7 +13343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -13199,7 +13363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13213,7 +13377,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>435</v>
       </c>
@@ -13233,7 +13397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -13247,7 +13411,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13261,7 +13425,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -13275,7 +13439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -13289,7 +13453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -13309,7 +13473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -13329,7 +13493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>7</v>
       </c>
@@ -13343,7 +13507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>6</v>
       </c>
@@ -13357,7 +13521,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>441</v>
       </c>
@@ -13377,7 +13541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -13391,7 +13555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -13411,7 +13575,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -13431,7 +13595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>7</v>
       </c>
@@ -13445,7 +13609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>445</v>
       </c>
@@ -13465,7 +13629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>447</v>
       </c>
@@ -13485,7 +13649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -13499,7 +13663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -13513,7 +13677,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -13527,7 +13691,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -13541,7 +13705,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>451</v>
       </c>
@@ -13561,7 +13725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -13575,7 +13739,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -13595,7 +13759,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -13615,7 +13779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>7</v>
       </c>
@@ -13629,7 +13793,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -13643,7 +13807,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -13663,7 +13827,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>458</v>
       </c>
@@ -13683,7 +13847,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>174</v>
       </c>
@@ -13703,7 +13867,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>7</v>
       </c>
@@ -13717,7 +13881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -13737,7 +13901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -13757,7 +13921,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -13771,7 +13935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -13785,7 +13949,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>464</v>
       </c>
@@ -13805,7 +13969,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>467</v>
       </c>
@@ -13843,17 +14007,17 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -13873,7 +14037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -13893,7 +14057,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>470</v>
       </c>
@@ -13913,7 +14077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -13927,7 +14091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -13941,7 +14105,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -13961,7 +14125,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -13975,7 +14139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -13995,7 +14159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -14009,7 +14173,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>477</v>
       </c>
@@ -14029,7 +14193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>478</v>
       </c>
@@ -14049,7 +14213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -14063,7 +14227,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>755</v>
       </c>
@@ -14083,7 +14247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -14097,7 +14261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -14111,7 +14275,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -14125,7 +14289,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14139,7 +14303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14153,7 +14317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -14173,7 +14337,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -14187,7 +14351,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14201,7 +14365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14215,7 +14379,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -14235,7 +14399,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -14255,7 +14419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -14269,7 +14433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -14283,7 +14447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -14303,7 +14467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -14317,7 +14481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14337,7 +14501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>7</v>
       </c>
@@ -14351,7 +14515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -14365,7 +14529,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -14379,7 +14543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>491</v>
       </c>
@@ -14399,7 +14563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -14419,7 +14583,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -14433,7 +14597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -14453,7 +14617,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -14467,7 +14631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14481,7 +14645,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14495,7 +14659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14509,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14523,7 +14687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -14543,7 +14707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -14575,17 +14739,17 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14605,7 +14769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>499</v>
       </c>
@@ -14625,7 +14789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14639,7 +14803,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14653,7 +14817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>470</v>
       </c>
@@ -14673,7 +14837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -14687,7 +14851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -14701,7 +14865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -14715,7 +14879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14729,7 +14893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14743,7 +14907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14757,7 +14921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -14771,7 +14935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14791,7 +14955,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14805,7 +14969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -14819,7 +14983,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14833,7 +14997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>509</v>
       </c>
@@ -14853,7 +15017,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>478</v>
       </c>
@@ -14873,7 +15037,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -14887,7 +15051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -14901,7 +15065,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -14915,7 +15079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -14929,7 +15093,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>755</v>
       </c>
@@ -14949,7 +15113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -14969,7 +15133,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>416</v>
       </c>
@@ -14989,7 +15153,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>522</v>
       </c>
@@ -15009,7 +15173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -15023,7 +15187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -15037,7 +15201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15051,7 +15215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -15071,7 +15235,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15085,7 +15249,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -15105,7 +15269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15119,7 +15283,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -15139,7 +15303,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -15153,7 +15317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -15167,7 +15331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15181,7 +15345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15195,7 +15359,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>494</v>
       </c>
@@ -15215,7 +15379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15229,7 +15393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -15243,7 +15407,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -15263,7 +15427,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -15283,7 +15447,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15297,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -15311,7 +15475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>743</v>
       </c>
@@ -15331,7 +15495,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -15345,7 +15509,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>745</v>
       </c>
@@ -15365,7 +15529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -15385,7 +15549,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -15399,7 +15563,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -15413,7 +15577,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -15433,7 +15597,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -15453,7 +15617,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -15467,7 +15631,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15481,7 +15645,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15495,7 +15659,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -15515,7 +15679,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -15529,7 +15693,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15543,7 +15707,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -15563,7 +15727,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>544</v>
       </c>
@@ -15583,7 +15747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>63</v>
       </c>
@@ -15597,7 +15761,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>63</v>
       </c>
@@ -15611,7 +15775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -15642,17 +15806,17 @@
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15672,7 +15836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -15692,7 +15856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15706,7 +15870,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15720,7 +15884,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15740,7 +15904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -15754,7 +15918,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15768,7 +15932,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15782,7 +15946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -15799,7 +15963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>214</v>
       </c>
@@ -15810,7 +15974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -15830,7 +15994,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -15844,7 +16008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -15858,7 +16022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -15872,7 +16036,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -15886,7 +16050,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -15906,7 +16070,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>755</v>
       </c>
@@ -15926,7 +16090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -15940,7 +16104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -15960,7 +16124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -15974,7 +16138,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>185</v>
       </c>
@@ -15994,7 +16158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16008,7 +16172,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>522</v>
       </c>
@@ -16028,7 +16192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -16042,7 +16206,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -16062,7 +16226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -16076,7 +16240,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -16096,7 +16260,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -16110,7 +16274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16124,7 +16288,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16138,7 +16302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16152,7 +16316,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -16172,7 +16336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -16192,7 +16356,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -16206,7 +16370,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -16226,7 +16390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -16240,7 +16404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16254,7 +16418,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -16268,7 +16432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -16282,7 +16446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -16296,7 +16460,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>51</v>
       </c>
@@ -16310,7 +16474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>743</v>
       </c>
@@ -16330,7 +16494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>745</v>
       </c>
@@ -16350,7 +16514,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -16370,7 +16534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -16384,7 +16548,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>174</v>
       </c>
@@ -16404,7 +16568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16418,7 +16582,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>151</v>
       </c>
@@ -16438,7 +16602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16452,7 +16616,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16466,7 +16630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16480,7 +16644,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -16494,7 +16658,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -16514,7 +16678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -16528,7 +16692,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -16542,7 +16706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -16556,7 +16720,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>51</v>
       </c>
@@ -16570,7 +16734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -16590,7 +16754,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -16604,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -16618,7 +16782,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -16649,17 +16813,17 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -16679,7 +16843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -16699,7 +16863,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -16719,7 +16883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -16733,7 +16897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -16747,7 +16911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -16764,7 +16928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>571</v>
       </c>
@@ -16775,7 +16939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -16795,7 +16959,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -16815,7 +16979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -16829,7 +16993,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -16843,7 +17007,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>755</v>
       </c>
@@ -16863,7 +17027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -16883,7 +17047,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -16897,7 +17061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -16911,7 +17075,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -16928,7 +17092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>67</v>
       </c>
@@ -16939,7 +17103,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -16959,7 +17123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -16973,7 +17137,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -16993,7 +17157,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17007,7 +17171,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -17027,7 +17191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -17041,7 +17205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -17055,7 +17219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -17069,7 +17233,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -17089,7 +17253,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -17103,7 +17267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -17117,7 +17281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -17131,7 +17295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -17145,7 +17309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -17159,7 +17323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -17173,7 +17337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>577</v>
       </c>
@@ -17193,7 +17357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17213,7 +17377,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -17227,7 +17391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>579</v>
       </c>
@@ -17247,7 +17411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -17261,7 +17425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -17275,7 +17439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>745</v>
       </c>
@@ -17295,7 +17459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -17309,7 +17473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -17323,7 +17487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -17337,7 +17501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -17357,7 +17521,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>30</v>
       </c>
@@ -17371,7 +17535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>174</v>
       </c>
@@ -17391,7 +17555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17405,7 +17569,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>151</v>
       </c>
@@ -17425,7 +17589,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -17445,7 +17609,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -17459,7 +17623,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17473,7 +17637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>590</v>
       </c>
@@ -17493,7 +17657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -17507,7 +17671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -17521,7 +17685,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -17541,7 +17705,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -17555,7 +17719,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>63</v>
       </c>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9678" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61D6CC2B-04AD-482D-B255-415CBE38658C}"/>
+  <xr:revisionPtr revIDLastSave="9684" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DFFD35B-A134-46E3-AB4B-ADAADCF23239}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="801">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2198,9 +2198,6 @@
     <t>7-5 4-6 8-6</t>
   </si>
   <si>
-    <t>ABU DHABI WOMEN'S TENNIS OPEN</t>
-  </si>
-  <si>
     <t>Aliaksandra Sasnovich (BELARUS)</t>
   </si>
   <si>
@@ -2454,6 +2451,9 @@
   </si>
   <si>
     <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
   </si>
 </sst>
 </file>
@@ -4968,10 +4968,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5622,7 +5618,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -5919,7 +5915,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -6130,7 +6126,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -6178,7 +6174,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -6573,13 +6569,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6675,7 +6671,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6742,7 +6738,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -6881,7 +6877,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
@@ -6949,7 +6945,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -7059,7 +7055,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -7118,7 +7114,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -7195,7 +7191,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -7263,7 +7259,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>22</v>
@@ -7399,7 +7395,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7508,7 +7504,7 @@
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7671,7 +7667,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -8007,7 +8003,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8036,7 +8032,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
@@ -8287,7 +8283,7 @@
         <v>699</v>
       </c>
       <c r="F9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8357,7 +8353,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -8675,18 +8671,18 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8711,7 +8707,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8734,7 +8730,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -8782,7 +8778,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8810,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -8830,7 +8826,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8886,13 +8882,13 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -8912,7 +8908,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8926,7 +8922,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8954,7 +8950,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9010,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -9038,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -9052,13 +9048,13 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
+        <v>724</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
         <v>725</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9072,7 +9068,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
@@ -9086,7 +9082,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -9120,7 +9116,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -9140,7 +9136,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -9154,7 +9150,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -9169,13 +9165,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
+        <v>731</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
         <v>732</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -9203,7 +9199,7 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
@@ -9214,7 +9210,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -9237,7 +9233,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
@@ -9257,7 +9253,7 @@
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -9271,7 +9267,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
@@ -9305,7 +9301,7 @@
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -9361,7 +9357,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -9372,7 +9368,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -9387,12 +9383,12 @@
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -9401,7 +9397,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
@@ -9415,13 +9411,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9441,7 +9437,7 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -9449,7 +9445,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -9460,7 +9456,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -9477,7 +9473,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -9488,7 +9484,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -9497,7 +9493,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
@@ -9517,7 +9513,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9525,7 +9521,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -9539,13 +9535,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9564,7 +9560,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -9579,12 +9575,12 @@
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -9593,7 +9589,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -9633,7 +9629,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -9641,7 +9637,7 @@
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -9669,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -9751,13 +9747,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>759</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9765,7 +9761,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -9785,7 +9781,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -9825,7 +9821,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9859,7 +9855,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -9867,7 +9863,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -9892,7 +9888,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -9901,13 +9897,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9935,7 +9931,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -9961,7 +9957,7 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9975,7 +9971,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -9989,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
@@ -10009,7 +10005,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
@@ -10020,7 +10016,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -10029,13 +10025,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -10049,13 +10045,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -10063,7 +10059,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -10083,7 +10079,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
@@ -10094,7 +10090,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -10103,7 +10099,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -10117,7 +10113,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -10128,7 +10124,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -10137,7 +10133,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -10157,13 +10153,13 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
+        <v>779</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
         <v>780</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -10171,7 +10167,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -10191,12 +10187,12 @@
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -10205,7 +10201,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -10219,7 +10215,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
@@ -10230,7 +10226,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -10239,13 +10235,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
+        <v>787</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
         <v>788</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -10259,10 +10255,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10270,7 +10266,7 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10297,7 +10293,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -10312,12 +10308,12 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -10326,7 +10322,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -10352,12 +10348,12 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -10366,13 +10362,27 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -10388,7 +10398,7 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" activeCellId="1" sqref="A1:A17 F1:F17"/>
     </sheetView>
   </sheetViews>
@@ -10787,7 +10797,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B19" s="5">
         <f>AVERAGE(B2:B17)</f>
@@ -14229,7 +14239,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -14342,7 +14352,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -15095,7 +15105,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -15477,7 +15487,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -15511,7 +15521,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -15704,7 +15714,7 @@
         <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -16072,7 +16082,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -16476,7 +16486,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -16496,7 +16506,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -17009,7 +17019,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -17441,7 +17451,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -17464,7 +17474,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>22</v>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9684" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DFFD35B-A134-46E3-AB4B-ADAADCF23239}"/>
+  <xr:revisionPtr revIDLastSave="9685" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0100D61E-93AC-420C-8D36-876AF169D24B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="801">
   <si>
     <t>Semifinal</t>
   </si>
@@ -10255,10 +10255,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10371,20 +10371,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>800</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>126</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -10398,7 +10384,7 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" activeCellId="1" sqref="A1:A17 F1:F17"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9685" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0100D61E-93AC-420C-8D36-876AF169D24B}"/>
+  <xr:revisionPtr revIDLastSave="9687" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B76DE7C-C559-4A07-B12B-7FF385D1B805}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>Ekaterina Makarova (RUSSIA)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>MIAMI OPEN</t>
   </si>
   <si>
@@ -2454,6 +2451,9 @@
   </si>
   <si>
     <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -4883,7 +4883,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FA930977-AF80-4F20-BC99-E68F08D324AE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4906,7 +4906,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8570360" cy="5830584"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4966,6 +4966,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5271,17 +5275,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5306,7 +5310,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -5315,7 +5319,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -5326,7 +5330,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -5335,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -5359,17 +5363,17 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5409,7 +5413,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5419,13 +5423,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5449,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5469,7 +5473,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -5483,7 +5487,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -5497,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -5511,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -5525,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -5536,13 +5540,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -5559,12 +5563,12 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -5573,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -5587,18 +5591,18 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -5607,18 +5611,18 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -5627,7 +5631,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -5641,13 +5645,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
+        <v>606</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
         <v>607</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5655,13 +5659,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5669,18 +5673,18 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -5689,13 +5693,13 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,13 +5707,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5717,18 +5721,18 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>610</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
         <v>611</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -5737,18 +5741,18 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -5777,13 +5781,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5811,7 +5815,7 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5819,13 +5823,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5853,13 +5857,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5867,7 +5871,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -5881,18 +5885,18 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -5901,13 +5905,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5915,7 +5919,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -5929,13 +5933,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,18 +5947,18 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -5983,7 +5987,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -5997,7 +6001,7 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -6011,7 +6015,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -6025,13 +6029,13 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6053,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -6087,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
@@ -6101,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -6115,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
@@ -6126,7 +6130,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -6135,7 +6139,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -6149,13 +6153,13 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -6163,18 +6167,18 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -6183,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -6197,13 +6201,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6217,7 +6221,7 @@
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6225,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>22</v>
@@ -6239,7 +6243,7 @@
         <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>22</v>
@@ -6259,7 +6263,7 @@
         <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>22</v>
@@ -6273,7 +6277,7 @@
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -6287,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
@@ -6301,18 +6305,18 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -6321,7 +6325,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -6335,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -6349,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>21</v>
@@ -6360,7 +6364,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -6369,7 +6373,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>22</v>
@@ -6383,13 +6387,13 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6397,13 +6401,13 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6423,12 +6427,12 @@
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -6451,7 +6455,7 @@
         <v>63</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>21</v>
@@ -6465,7 +6469,7 @@
         <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>22</v>
@@ -6488,17 +6492,17 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6532,13 +6536,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6546,7 +6550,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -6555,13 +6559,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>630</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6569,13 +6573,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6589,7 +6593,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -6603,18 +6607,18 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -6623,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -6637,7 +6641,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -6651,13 +6655,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6665,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6679,7 +6683,7 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -6690,7 +6694,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -6699,7 +6703,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -6713,7 +6717,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -6727,18 +6731,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -6747,18 +6751,18 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
+        <v>635</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>636</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -6767,7 +6771,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -6781,7 +6785,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
@@ -6792,7 +6796,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -6801,7 +6805,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -6815,7 +6819,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -6829,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -6843,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -6857,18 +6861,18 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -6877,18 +6881,18 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -6911,13 +6915,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6925,13 +6929,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6945,18 +6949,18 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -6971,7 +6975,7 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6979,7 +6983,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -7007,13 +7011,13 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7035,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
@@ -7046,7 +7050,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -7055,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -7089,13 +7093,13 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7103,18 +7107,18 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -7123,13 +7127,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7143,7 +7147,7 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
@@ -7157,18 +7161,18 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -7177,7 +7181,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -7191,7 +7195,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -7202,7 +7206,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -7211,7 +7215,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -7225,7 +7229,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
@@ -7239,13 +7243,13 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -7259,7 +7263,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>22</v>
@@ -7273,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
@@ -7284,7 +7288,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -7293,7 +7297,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -7307,7 +7311,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -7321,13 +7325,13 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -7335,18 +7339,18 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
+        <v>654</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
         <v>655</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -7369,7 +7373,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>21</v>
@@ -7380,7 +7384,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -7389,13 +7393,13 @@
         <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,13 +7407,13 @@
         <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -7417,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>21</v>
@@ -7440,17 +7444,17 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7475,7 +7479,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7498,13 +7502,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7518,7 +7522,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -7532,13 +7536,13 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7552,7 +7556,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7560,7 +7564,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -7571,7 +7575,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -7580,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -7594,7 +7598,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -7608,18 +7612,18 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -7628,13 +7632,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7642,7 +7646,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -7656,7 +7660,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
@@ -7667,7 +7671,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -7676,7 +7680,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -7690,13 +7694,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7704,13 +7708,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7718,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -7729,7 +7733,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -7738,18 +7742,18 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -7758,13 +7762,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
+        <v>674</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
         <v>675</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7772,13 +7776,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7786,13 +7790,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7800,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -7820,40 +7824,40 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>678</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
         <v>679</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -7862,13 +7866,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7882,7 +7886,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
@@ -7896,13 +7900,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>682</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
         <v>683</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7916,7 +7920,7 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7930,13 +7934,13 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
+        <v>684</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
         <v>685</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7944,7 +7948,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -7958,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -7972,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
@@ -7992,7 +7996,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -8003,7 +8007,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8012,13 +8016,13 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -8032,18 +8036,18 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -8052,18 +8056,18 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8086,7 +8090,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -8106,13 +8110,13 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -8129,17 +8133,17 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8164,7 +8168,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8173,13 +8177,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>692</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8189,13 +8193,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8205,13 +8209,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8221,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -8240,7 +8244,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -8249,7 +8253,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8263,13 +8267,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8277,13 +8281,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>699</v>
-      </c>
       <c r="F9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8297,13 +8301,13 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8311,13 +8315,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8325,7 +8329,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -8339,7 +8343,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -8353,7 +8357,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -8367,13 +8371,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>700</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>701</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -8381,18 +8385,18 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -8401,13 +8405,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>703</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>704</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -8415,13 +8419,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8429,18 +8433,18 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -8449,13 +8453,13 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -8463,7 +8467,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -8477,7 +8481,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -8491,13 +8495,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8511,7 +8515,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -8525,7 +8529,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -8545,7 +8549,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -8559,13 +8563,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
+        <v>708</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>709</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -8573,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -8601,13 +8605,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -8621,13 +8625,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
+        <v>712</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
         <v>713</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -8635,7 +8639,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -8649,13 +8653,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -8672,7 +8676,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8707,7 +8711,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8716,7 +8720,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -8730,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -8744,7 +8748,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -8755,7 +8759,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -8764,7 +8768,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -8778,7 +8782,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8792,7 +8796,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -8806,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -8820,13 +8824,13 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8840,7 +8844,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -8854,7 +8858,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -8868,7 +8872,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -8882,18 +8886,18 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -8902,13 +8906,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8916,13 +8920,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8930,7 +8934,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -8950,7 +8954,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8958,7 +8962,7 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -8969,7 +8973,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -8978,7 +8982,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -8992,7 +8996,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -9006,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -9020,13 +9024,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -9034,13 +9038,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9048,18 +9052,18 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
+        <v>723</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
         <v>724</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -9068,7 +9072,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
@@ -9082,13 +9086,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9096,18 +9100,18 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -9116,7 +9120,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -9130,13 +9134,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -9150,7 +9154,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -9165,13 +9169,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
+        <v>730</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
         <v>731</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -9179,7 +9183,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
@@ -9199,7 +9203,7 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
@@ -9210,7 +9214,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -9219,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -9233,7 +9237,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
@@ -9247,13 +9251,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -9267,7 +9271,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
@@ -9281,7 +9285,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -9295,18 +9299,18 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -9315,13 +9319,13 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -9329,7 +9333,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -9343,7 +9347,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -9357,7 +9361,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -9368,7 +9372,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -9377,18 +9381,18 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -9397,7 +9401,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
@@ -9411,13 +9415,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9431,13 +9435,13 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -9445,7 +9449,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -9456,7 +9460,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -9465,7 +9469,7 @@
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9473,18 +9477,18 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -9493,7 +9497,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
@@ -9513,7 +9517,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9521,7 +9525,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -9535,13 +9539,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9549,18 +9553,18 @@
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -9569,18 +9573,18 @@
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -9589,13 +9593,13 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -9603,7 +9607,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>21</v>
@@ -9614,7 +9618,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -9623,13 +9627,13 @@
         <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -9637,13 +9641,13 @@
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -9651,7 +9655,7 @@
         <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -9665,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -9679,7 +9683,7 @@
         <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -9702,18 +9706,18 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" activeCellId="16" sqref="E3 E6 E9 E13 E15 E18 E20 E23 E25 E27 E30 E32 E35 E37 E41 E44 E46"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9738,7 +9742,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -9747,13 +9751,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>758</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9761,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -9781,7 +9785,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -9795,7 +9799,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -9806,7 +9810,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9815,13 +9819,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9829,18 +9833,18 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -9849,13 +9853,13 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -9863,7 +9867,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -9877,7 +9881,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -9888,7 +9892,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -9897,18 +9901,18 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -9917,7 +9921,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -9931,7 +9935,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -9951,18 +9955,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -9971,7 +9975,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -9985,13 +9989,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -10005,18 +10009,18 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -10025,18 +10029,18 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -10045,13 +10049,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -10059,7 +10063,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -10079,7 +10083,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
@@ -10090,7 +10094,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -10099,7 +10103,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -10113,7 +10117,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -10124,7 +10128,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -10133,7 +10137,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -10153,13 +10157,13 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
+        <v>778</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
         <v>779</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -10167,7 +10171,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -10181,18 +10185,18 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -10201,7 +10205,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -10215,7 +10219,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
@@ -10226,7 +10230,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -10235,13 +10239,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
+        <v>786</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
         <v>787</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -10258,7 +10262,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10266,7 +10270,7 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10293,7 +10297,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -10302,18 +10306,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -10322,7 +10326,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -10342,18 +10346,18 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -10362,7 +10366,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -10384,38 +10388,38 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A17 F1:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -10783,7 +10787,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B19" s="5">
         <f>AVERAGE(B2:B17)</f>
@@ -10829,17 +10833,17 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10864,7 +10868,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -10873,7 +10877,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -10884,7 +10888,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -10893,7 +10897,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -10907,7 +10911,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -10921,7 +10925,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -10935,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -10949,18 +10953,18 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -10969,7 +10973,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -10983,13 +10987,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10997,7 +11001,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -11011,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -11022,7 +11026,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -11031,7 +11035,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -11042,7 +11046,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -11051,18 +11055,18 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
         <v>278</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -11071,7 +11075,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -11085,7 +11089,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -11099,7 +11103,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -11113,18 +11117,18 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -11133,7 +11137,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -11147,13 +11151,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11161,7 +11165,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -11175,18 +11179,18 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -11195,18 +11199,18 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -11215,7 +11219,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -11229,13 +11233,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>292</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>293</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -11243,7 +11247,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
@@ -11254,7 +11258,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -11263,7 +11267,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -11274,7 +11278,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -11283,7 +11287,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -11297,7 +11301,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -11311,18 +11315,18 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -11331,7 +11335,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -11345,7 +11349,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -11359,7 +11363,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -11373,13 +11377,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -11387,13 +11391,13 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -11411,17 +11415,17 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11446,7 +11450,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -11455,7 +11459,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -11469,7 +11473,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -11483,7 +11487,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -11497,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -11511,18 +11515,18 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -11531,7 +11535,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -11545,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -11559,7 +11563,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -11573,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -11587,18 +11591,18 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -11607,13 +11611,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
         <v>317</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11621,18 +11625,18 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -11641,7 +11645,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -11655,13 +11659,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>321</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11669,7 +11673,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -11680,7 +11684,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -11689,13 +11693,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>325</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -11703,7 +11707,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -11714,7 +11718,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -11723,7 +11727,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -11737,13 +11741,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11751,7 +11755,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -11765,7 +11769,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -11779,7 +11783,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -11793,18 +11797,18 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -11813,13 +11817,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
         <v>335</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -11827,7 +11831,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
@@ -11841,7 +11845,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -11855,18 +11859,18 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -11875,7 +11879,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
@@ -11886,7 +11890,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -11895,7 +11899,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -11909,13 +11913,13 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
+        <v>343</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
         <v>344</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -11933,17 +11937,17 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11968,7 +11972,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -11977,7 +11981,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -11988,7 +11992,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -11997,7 +12001,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -12011,7 +12015,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -12025,7 +12029,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -12036,7 +12040,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -12045,13 +12049,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>351</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -12059,7 +12063,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -12073,7 +12077,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -12087,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -12101,7 +12105,7 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -12112,7 +12116,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -12121,7 +12125,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -12135,7 +12139,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -12149,13 +12153,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12163,13 +12167,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
         <v>360</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -12177,7 +12181,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -12188,7 +12192,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -12197,7 +12201,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -12211,7 +12215,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -12225,7 +12229,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -12239,18 +12243,18 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
         <v>365</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -12259,7 +12263,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -12273,7 +12277,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -12287,7 +12291,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -12301,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -12315,7 +12319,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
@@ -12326,7 +12330,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -12335,7 +12339,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -12349,13 +12353,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>371</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>372</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -12363,13 +12367,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -12377,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -12391,18 +12395,18 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -12411,7 +12415,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -12422,7 +12426,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -12431,7 +12435,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
@@ -12445,13 +12449,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -12459,13 +12463,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -12473,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -12487,7 +12491,7 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -12498,7 +12502,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -12507,7 +12511,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -12521,7 +12525,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -12535,18 +12539,18 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -12555,7 +12559,7 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
@@ -12569,7 +12573,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
@@ -12583,7 +12587,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
@@ -12594,7 +12598,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -12603,13 +12607,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -12617,18 +12621,18 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
+        <v>387</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
         <v>388</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -12637,7 +12641,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -12651,7 +12655,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -12665,7 +12669,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -12676,7 +12680,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
@@ -12685,7 +12689,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -12699,13 +12703,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -12713,13 +12717,13 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -12727,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -12741,7 +12745,7 @@
         <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -12752,7 +12756,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -12761,18 +12765,18 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
@@ -12781,7 +12785,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -12795,7 +12799,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
@@ -12809,18 +12813,18 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -12829,13 +12833,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -12843,7 +12847,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>22</v>
@@ -12857,7 +12861,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>21</v>
@@ -12868,7 +12872,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -12877,7 +12881,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>22</v>
@@ -12891,7 +12895,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>22</v>
@@ -12905,7 +12909,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -12919,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -12933,13 +12937,13 @@
         <v>51</v>
       </c>
       <c r="D80" t="s">
+        <v>406</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
         <v>407</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -12956,17 +12960,17 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12991,7 +12995,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -13000,7 +13004,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -13014,13 +13018,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -13028,7 +13032,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -13042,7 +13046,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -13062,13 +13066,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -13076,7 +13080,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -13096,12 +13100,12 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -13110,7 +13114,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -13121,7 +13125,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -13130,7 +13134,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -13144,7 +13148,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -13155,7 +13159,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -13164,18 +13168,18 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -13184,7 +13188,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -13198,7 +13202,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -13212,13 +13216,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13226,13 +13230,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -13240,7 +13244,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -13268,7 +13272,7 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -13279,7 +13283,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -13288,13 +13292,13 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -13322,7 +13326,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -13341,7 +13345,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -13350,7 +13354,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -13370,12 +13374,12 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -13384,7 +13388,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -13398,13 +13402,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -13412,13 +13416,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -13426,13 +13430,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -13440,7 +13444,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
@@ -13451,7 +13455,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -13480,7 +13484,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -13494,7 +13498,7 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -13508,18 +13512,18 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -13528,7 +13532,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -13542,7 +13546,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
@@ -13553,7 +13557,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -13562,13 +13566,13 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -13582,7 +13586,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -13596,7 +13600,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -13607,7 +13611,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -13616,18 +13620,18 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -13636,7 +13640,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -13650,7 +13654,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -13664,13 +13668,13 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -13678,13 +13682,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -13692,18 +13696,18 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
@@ -13712,7 +13716,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -13726,18 +13730,18 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -13746,18 +13750,18 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -13766,7 +13770,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -13780,13 +13784,13 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -13794,13 +13798,13 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
+        <v>453</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
         <v>454</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -13814,18 +13818,18 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -13840,12 +13844,12 @@
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -13854,13 +13858,13 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -13868,7 +13872,7 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>21</v>
@@ -13888,7 +13892,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>21</v>
@@ -13899,7 +13903,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -13908,13 +13912,13 @@
         <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -13922,7 +13926,7 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -13936,18 +13940,18 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -13956,18 +13960,18 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
+        <v>464</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
         <v>465</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -13976,13 +13980,13 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -14000,17 +14004,17 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14035,7 +14039,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -14044,18 +14048,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -14064,7 +14068,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -14078,7 +14082,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -14092,13 +14096,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -14112,13 +14116,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -14126,7 +14130,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -14146,7 +14150,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -14160,18 +14164,18 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -14180,7 +14184,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -14191,7 +14195,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -14200,7 +14204,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -14220,12 +14224,12 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -14234,7 +14238,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -14248,7 +14252,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -14262,13 +14266,13 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -14282,7 +14286,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14290,7 +14294,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -14304,7 +14308,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
@@ -14315,7 +14319,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -14324,13 +14328,13 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -14338,13 +14342,13 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -14352,7 +14356,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -14372,12 +14376,12 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -14386,18 +14390,18 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -14406,7 +14410,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -14420,7 +14424,7 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -14434,7 +14438,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -14445,7 +14449,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -14454,7 +14458,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -14468,13 +14472,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -14488,7 +14492,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -14502,7 +14506,7 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -14516,13 +14520,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -14541,7 +14545,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -14550,7 +14554,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -14570,13 +14574,13 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -14595,7 +14599,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
@@ -14604,13 +14608,13 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -14618,7 +14622,7 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -14632,13 +14636,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -14646,7 +14650,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -14674,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
@@ -14694,7 +14698,7 @@
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -14714,7 +14718,7 @@
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -14732,17 +14736,17 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14767,7 +14771,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -14776,7 +14780,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -14790,13 +14794,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>500</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14804,7 +14808,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -14815,7 +14819,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -14824,7 +14828,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -14838,7 +14842,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -14852,7 +14856,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -14866,7 +14870,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -14880,13 +14884,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14894,7 +14898,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -14908,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -14942,13 +14946,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
         <v>507</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -14956,7 +14960,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -14970,13 +14974,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -14995,7 +14999,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -15004,18 +15008,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>510</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -15024,13 +15028,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15038,7 +15042,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -15052,13 +15056,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -15066,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -15086,12 +15090,12 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -15100,7 +15104,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
@@ -15111,7 +15115,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -15120,18 +15124,18 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
+        <v>518</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
         <v>519</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -15140,18 +15144,18 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -15160,7 +15164,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -15188,7 +15192,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
@@ -15202,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -15213,7 +15217,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -15222,13 +15226,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -15242,7 +15246,7 @@
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -15256,7 +15260,7 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -15276,7 +15280,7 @@
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -15290,13 +15294,13 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -15304,7 +15308,7 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -15318,7 +15322,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
@@ -15332,7 +15336,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -15352,12 +15356,12 @@
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -15366,7 +15370,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -15380,7 +15384,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -15394,13 +15398,13 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -15414,13 +15418,13 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -15440,7 +15444,7 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -15462,7 +15466,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
@@ -15473,7 +15477,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -15482,13 +15486,13 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
+        <v>534</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>535</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -15502,12 +15506,12 @@
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -15516,7 +15520,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -15527,7 +15531,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -15536,13 +15540,13 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -15556,7 +15560,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -15564,13 +15568,13 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -15590,12 +15594,12 @@
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -15610,7 +15614,7 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -15624,7 +15628,7 @@
         <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -15632,13 +15636,13 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -15646,18 +15650,18 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -15666,13 +15670,13 @@
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -15680,13 +15684,13 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -15694,13 +15698,13 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -15720,12 +15724,12 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -15734,7 +15738,7 @@
         <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>22</v>
@@ -15754,7 +15758,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -15776,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>21</v>
@@ -15799,17 +15803,17 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15834,7 +15838,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -15843,7 +15847,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -15863,7 +15867,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15871,13 +15875,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -15891,7 +15895,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -15911,7 +15915,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -15925,7 +15929,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -15933,7 +15937,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -15944,13 +15948,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -15961,7 +15965,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -15972,7 +15976,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -15981,13 +15985,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16029,7 +16033,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -16037,18 +16041,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -16063,12 +16067,12 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -16077,7 +16081,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -16091,7 +16095,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
@@ -16102,7 +16106,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -16111,7 +16115,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -16125,18 +16129,18 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -16159,18 +16163,18 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -16179,7 +16183,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -16193,18 +16197,18 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -16213,7 +16217,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -16233,7 +16237,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -16247,13 +16251,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -16261,7 +16265,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -16275,13 +16279,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -16309,12 +16313,12 @@
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -16323,7 +16327,7 @@
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
@@ -16334,7 +16338,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
@@ -16343,13 +16347,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -16357,13 +16361,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -16377,7 +16381,7 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -16397,7 +16401,7 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -16405,13 +16409,13 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -16419,7 +16423,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -16453,7 +16457,7 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -16461,7 +16465,7 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -16472,7 +16476,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -16481,7 +16485,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
@@ -16492,7 +16496,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -16501,13 +16505,13 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -16521,7 +16525,7 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -16535,18 +16539,18 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -16569,18 +16573,18 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -16589,7 +16593,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
@@ -16609,7 +16613,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -16617,7 +16621,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -16631,13 +16635,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -16651,7 +16655,7 @@
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -16665,7 +16669,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
@@ -16685,7 +16689,7 @@
         <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -16693,7 +16697,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -16713,7 +16717,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -16732,7 +16736,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -16747,7 +16751,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -16755,7 +16759,7 @@
         <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -16769,13 +16773,13 @@
         <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.3">
@@ -16789,7 +16793,7 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -16806,17 +16810,17 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16850,13 +16854,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>568</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16870,7 +16874,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -16884,7 +16888,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -16909,7 +16913,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -16926,7 +16930,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -16937,7 +16941,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -16946,18 +16950,18 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -16966,7 +16970,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -16980,13 +16984,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16994,18 +16998,18 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -17014,7 +17018,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -17025,7 +17029,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -17040,7 +17044,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -17048,7 +17052,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -17068,18 +17072,18 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -17096,12 +17100,12 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -17110,7 +17114,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -17124,18 +17128,18 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -17144,13 +17148,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -17158,13 +17162,13 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -17192,7 +17196,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -17220,13 +17224,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -17240,13 +17244,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -17254,7 +17258,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -17268,7 +17272,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
@@ -17296,7 +17300,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -17310,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -17324,7 +17328,7 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -17335,7 +17339,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
@@ -17344,7 +17348,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -17364,13 +17368,13 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -17378,7 +17382,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>21</v>
@@ -17389,7 +17393,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -17398,7 +17402,7 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
@@ -17412,7 +17416,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -17426,7 +17430,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -17437,7 +17441,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -17446,7 +17450,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
@@ -17460,7 +17464,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>22</v>
@@ -17474,7 +17478,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -17488,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>21</v>
@@ -17508,13 +17512,13 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
+        <v>581</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
         <v>582</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -17522,7 +17526,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
@@ -17533,7 +17537,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -17542,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -17556,18 +17560,18 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
+        <v>584</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
         <v>585</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -17582,7 +17586,7 @@
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -17596,13 +17600,13 @@
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -17610,13 +17614,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
+        <v>587</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s">
         <v>588</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -17624,7 +17628,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>21</v>
@@ -17635,7 +17639,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
@@ -17644,7 +17648,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>22</v>
@@ -17658,7 +17662,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
@@ -17672,18 +17676,18 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
+        <v>591</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
         <v>592</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -17692,13 +17696,13 @@
         <v>63</v>
       </c>
       <c r="D75" t="s">
+        <v>595</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
         <v>596</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -17712,7 +17716,7 @@
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -17720,13 +17724,13 @@
         <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9687" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B76DE7C-C559-4A07-B12B-7FF385D1B805}"/>
+  <xr:revisionPtr revIDLastSave="9688" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9ECD91F-2E4B-4EFD-9F55-0B837FF63C8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <sheet name="2021" sheetId="28" r:id="rId14"/>
     <sheet name="2022" sheetId="31" r:id="rId15"/>
     <sheet name="2023" sheetId="34" r:id="rId16"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
+    <sheet name="Stats" sheetId="1" r:id="rId17"/>
     <sheet name="Wins-Losses" sheetId="35" r:id="rId18"/>
     <sheet name="Winning Percentile Range" sheetId="36" r:id="rId19"/>
   </sheets>
@@ -2657,7 +2657,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2678,7 +2678,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2735,7 +2735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$17</c:f>
+              <c:f>Stats!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2801,7 +2801,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2822,7 +2822,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2879,7 +2879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$17</c:f>
+              <c:f>Stats!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3324,7 +3324,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3373,7 +3373,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3430,7 +3430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$17</c:f>
+              <c:f>Stats!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4968,10 +4968,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9688" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9ECD91F-2E4B-4EFD-9F55-0B837FF63C8D}"/>
+  <xr:revisionPtr revIDLastSave="9689" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9128F693-FC4D-4584-8480-3BA5A65A7892}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -4895,7 +4895,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6073F10A-5E22-4D75-8587-9171F08B9A20}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4906,7 +4906,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4966,6 +4966,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5270,21 +5274,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -5358,21 +5362,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -5428,7 +5432,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -5444,7 +5448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>99</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -5582,7 +5586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5596,7 +5600,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -5616,7 +5620,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>753</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5726,7 +5730,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -5746,7 +5750,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>800</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -5828,7 +5832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5876,7 +5880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5890,7 +5894,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -5910,7 +5914,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -5924,7 +5928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -5952,7 +5956,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>51</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6110,7 +6114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>741</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -6158,7 +6162,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -6172,7 +6176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>743</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>51</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>30</v>
       </c>
@@ -6282,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -6344,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -6378,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>63</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>63</v>
       </c>
@@ -6487,21 +6491,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -6541,10 +6545,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -6632,7 +6636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -6708,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -6722,7 +6726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>753</v>
       </c>
@@ -6756,7 +6760,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6838,7 +6842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -6852,7 +6856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>184</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>800</v>
       </c>
@@ -6906,7 +6910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6934,7 +6938,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>644</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -6988,7 +6992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -7016,7 +7020,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -7030,7 +7034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -7044,7 +7048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -7098,7 +7102,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -7112,7 +7116,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>743</v>
       </c>
@@ -7132,7 +7136,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>30</v>
       </c>
@@ -7166,7 +7170,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -7234,7 +7238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>653</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>658</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -7439,21 +7443,21 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7569,7 +7573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>663</v>
       </c>
@@ -7589,7 +7593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -7637,7 +7641,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7651,7 +7655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7665,7 +7669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>753</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -7699,7 +7703,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7747,7 +7751,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -7809,7 +7813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -7823,7 +7827,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>118</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -7871,7 +7875,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -7905,7 +7909,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7939,7 +7943,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -7953,7 +7957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -7967,7 +7971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7981,7 +7985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>743</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8095,7 +8099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -8128,21 +8132,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -8182,7 +8186,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8198,7 +8202,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -8214,7 +8218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -8230,7 +8234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8238,7 +8242,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>469</v>
       </c>
@@ -8258,7 +8262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8272,7 +8276,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8286,7 +8290,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -8334,7 +8338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -8348,7 +8352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -8438,7 +8442,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8472,7 +8476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -8500,7 +8504,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -8596,7 +8600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -8644,7 +8648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -8671,21 +8675,21 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>799</v>
       </c>
@@ -8725,7 +8729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>51</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8891,7 +8895,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -8911,7 +8915,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8925,7 +8929,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8939,7 +8943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8953,7 +8957,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -8967,7 +8971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -8987,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -9029,7 +9033,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -9043,7 +9047,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -9057,7 +9061,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -9077,7 +9081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9091,7 +9095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -9125,7 +9129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -9160,7 +9164,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9188,7 +9192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9208,7 +9212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>733</v>
       </c>
@@ -9228,7 +9232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9242,7 +9246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9256,7 +9260,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -9290,7 +9294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9304,7 +9308,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>578</v>
       </c>
@@ -9324,7 +9328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9338,7 +9342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9352,7 +9356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9366,7 +9370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -9454,7 +9458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>748</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>749</v>
       </c>
@@ -9502,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9516,7 +9520,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -9558,7 +9562,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>753</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>754</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -9632,7 +9636,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>63</v>
       </c>
@@ -9646,7 +9650,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -9660,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>51</v>
       </c>
@@ -9702,21 +9706,21 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9736,7 +9740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -9790,7 +9794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -9804,7 +9808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -9824,7 +9828,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -9838,7 +9842,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -9872,7 +9876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9886,7 +9890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>753</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>800</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>521</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9994,7 +9998,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -10014,7 +10018,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>733</v>
       </c>
@@ -10034,7 +10038,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -10054,7 +10058,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -10068,7 +10072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -10088,7 +10092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>776</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10122,7 +10126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>743</v>
       </c>
@@ -10142,7 +10146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -10176,7 +10180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10190,7 +10194,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>782</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10224,7 +10228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>785</v>
       </c>
@@ -10257,21 +10261,21 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10291,7 +10295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>794</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>795</v>
       </c>
@@ -10331,7 +10335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10351,7 +10355,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>796</v>
       </c>
@@ -10384,21 +10388,21 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -10440,7 +10444,7 @@
       </c>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -10462,7 +10466,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -10546,7 +10550,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -10567,7 +10571,7 @@
         <v>0.48780487804878048</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>0.53658536585365857</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -10609,7 +10613,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -10630,7 +10634,7 @@
         <v>0.55319148936170215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>0.39393939393939392</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -10672,7 +10676,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -10693,7 +10697,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -10714,7 +10718,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>-0.41666666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -10756,7 +10760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>0.46205357142857145</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>740</v>
       </c>
@@ -10828,21 +10832,21 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10862,7 +10866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -10882,7 +10886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -10902,7 +10906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10916,7 +10920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10930,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -10944,7 +10948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -10958,7 +10962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -10978,7 +10982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10992,7 +10996,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11006,7 +11010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11020,7 +11024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -11080,7 +11084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11094,7 +11098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11108,7 +11112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -11122,7 +11126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -11142,7 +11146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11184,7 +11188,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -11224,7 +11228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11252,7 +11256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -11272,7 +11276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11306,7 +11310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -11354,7 +11358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -11368,7 +11372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -11382,7 +11386,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -11410,21 +11414,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11444,7 +11448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -11464,7 +11468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11478,7 +11482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11492,7 +11496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11506,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -11568,7 +11572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11582,7 +11586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -11596,7 +11600,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -11630,7 +11634,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -11664,7 +11668,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11678,7 +11682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -11698,7 +11702,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11712,7 +11716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -11732,7 +11736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -11788,7 +11792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -11822,7 +11826,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11864,7 +11868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>341</v>
       </c>
@@ -11904,7 +11908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>7</v>
       </c>
@@ -11932,21 +11936,21 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -11986,7 +11990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>345</v>
       </c>
@@ -12006,7 +12010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12034,7 +12038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -12054,7 +12058,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12068,7 +12072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12082,7 +12086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -12130,7 +12134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12144,7 +12148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12172,7 +12176,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -12186,7 +12190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -12206,7 +12210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12248,7 +12252,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -12268,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -12282,7 +12286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -12296,7 +12300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -12324,7 +12328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>370</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -12372,7 +12376,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -12386,7 +12390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>51</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>374</v>
       </c>
@@ -12420,7 +12424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>375</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12468,7 +12472,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>380</v>
       </c>
@@ -12516,7 +12520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12544,7 +12548,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>326</v>
       </c>
@@ -12564,7 +12568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -12592,7 +12596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>385</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -12626,7 +12630,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -12646,7 +12650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12660,7 +12664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12674,7 +12678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -12694,7 +12698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -12722,7 +12726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -12736,7 +12740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>51</v>
       </c>
@@ -12750,7 +12754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>395</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>397</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -12804,7 +12808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -12818,7 +12822,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>398</v>
       </c>
@@ -12838,7 +12842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -12852,7 +12856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -12866,7 +12870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -12900,7 +12904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12914,7 +12918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12928,7 +12932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>51</v>
       </c>
@@ -12955,21 +12959,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12989,7 +12993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>408</v>
       </c>
@@ -13009,7 +13013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -13023,7 +13027,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -13037,7 +13041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -13051,7 +13055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -13085,7 +13089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -13099,7 +13103,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>415</v>
       </c>
@@ -13119,7 +13123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>416</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -13153,7 +13157,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -13173,7 +13177,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>421</v>
       </c>
@@ -13193,7 +13197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -13207,7 +13211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -13221,7 +13225,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -13235,7 +13239,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -13249,7 +13253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13263,7 +13267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -13277,7 +13281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -13297,7 +13301,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -13311,7 +13315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -13325,7 +13329,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -13339,7 +13343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13359,7 +13363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13373,7 +13377,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>434</v>
       </c>
@@ -13393,7 +13397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -13449,7 +13453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>800</v>
       </c>
@@ -13469,7 +13473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -13489,7 +13493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>7</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>6</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>440</v>
       </c>
@@ -13537,7 +13541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -13551,7 +13555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13571,7 +13575,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -13591,7 +13595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>7</v>
       </c>
@@ -13605,7 +13609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>444</v>
       </c>
@@ -13625,7 +13629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13645,7 +13649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -13659,7 +13663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -13673,7 +13677,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -13687,7 +13691,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -13701,7 +13705,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -13721,7 +13725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -13735,7 +13739,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -13775,7 +13779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>7</v>
       </c>
@@ -13789,7 +13793,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -13803,7 +13807,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -13823,7 +13827,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>457</v>
       </c>
@@ -13843,7 +13847,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>7</v>
       </c>
@@ -13877,7 +13881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -13897,7 +13901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -13917,7 +13921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -13931,7 +13935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -13945,7 +13949,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>463</v>
       </c>
@@ -13965,7 +13969,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>466</v>
       </c>
@@ -13999,21 +14003,21 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14033,7 +14037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -14073,7 +14077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -14087,7 +14091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -14101,7 +14105,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14121,7 +14125,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -14155,7 +14159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -14169,7 +14173,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -14189,7 +14193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>477</v>
       </c>
@@ -14209,7 +14213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>753</v>
       </c>
@@ -14243,7 +14247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -14271,7 +14275,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -14285,7 +14289,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14299,7 +14303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14313,7 +14317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -14333,7 +14337,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -14347,7 +14351,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14361,7 +14365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14375,7 +14379,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -14395,7 +14399,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -14415,7 +14419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -14429,7 +14433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -14463,7 +14467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -14477,7 +14481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14497,7 +14501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>7</v>
       </c>
@@ -14511,7 +14515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -14525,7 +14529,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -14539,7 +14543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>490</v>
       </c>
@@ -14559,7 +14563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -14579,7 +14583,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -14593,7 +14597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>493</v>
       </c>
@@ -14613,7 +14617,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14641,7 +14645,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14655,7 +14659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14683,7 +14687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -14703,7 +14707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -14731,21 +14735,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14765,7 +14769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>498</v>
       </c>
@@ -14785,7 +14789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14799,7 +14803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14813,7 +14817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>469</v>
       </c>
@@ -14833,7 +14837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -14847,7 +14851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -14861,7 +14865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -14875,7 +14879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14917,7 +14921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -14931,7 +14935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14951,7 +14955,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14965,7 +14969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -14979,7 +14983,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14993,7 +14997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -15013,7 +15017,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>477</v>
       </c>
@@ -15033,7 +15037,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -15047,7 +15051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -15061,7 +15065,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -15075,7 +15079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -15089,7 +15093,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>753</v>
       </c>
@@ -15109,7 +15113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>521</v>
       </c>
@@ -15169,7 +15173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -15183,7 +15187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -15197,7 +15201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>800</v>
       </c>
@@ -15231,7 +15235,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15245,7 +15249,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -15265,7 +15269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15279,7 +15283,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -15299,7 +15303,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -15313,7 +15317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -15327,7 +15331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15341,7 +15345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15355,7 +15359,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>493</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15389,7 +15393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -15403,7 +15407,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -15423,7 +15427,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -15443,7 +15447,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15457,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -15471,7 +15475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>741</v>
       </c>
@@ -15491,7 +15495,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -15505,7 +15509,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>743</v>
       </c>
@@ -15525,7 +15529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -15545,7 +15549,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -15559,7 +15563,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -15573,7 +15577,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -15593,7 +15597,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -15613,7 +15617,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -15627,7 +15631,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15641,7 +15645,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15655,7 +15659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -15675,7 +15679,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15703,7 +15707,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -15723,7 +15727,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>543</v>
       </c>
@@ -15743,7 +15747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>63</v>
       </c>
@@ -15757,7 +15761,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>63</v>
       </c>
@@ -15771,7 +15775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -15798,21 +15802,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15832,7 +15836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -15852,7 +15856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15866,7 +15870,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -15914,7 +15918,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15928,7 +15932,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15942,7 +15946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -15959,7 +15963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>213</v>
       </c>
@@ -15970,7 +15974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -15990,7 +15994,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -16004,7 +16008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -16018,7 +16022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -16032,7 +16036,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -16046,7 +16050,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -16066,7 +16070,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -16086,7 +16090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16100,7 +16104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -16120,7 +16124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16134,7 +16138,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -16154,7 +16158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16168,7 +16172,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>521</v>
       </c>
@@ -16188,7 +16192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -16202,7 +16206,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -16222,7 +16226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -16236,7 +16240,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -16256,7 +16260,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -16270,7 +16274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16284,7 +16288,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16312,7 +16316,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -16332,7 +16336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -16352,7 +16356,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -16366,7 +16370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -16400,7 +16404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16414,7 +16418,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -16428,7 +16432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -16442,7 +16446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -16456,7 +16460,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>51</v>
       </c>
@@ -16470,7 +16474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -16490,7 +16494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -16510,7 +16514,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -16530,7 +16534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -16544,7 +16548,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -16564,7 +16568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16578,7 +16582,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -16598,7 +16602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16612,7 +16616,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16626,7 +16630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -16654,7 +16658,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -16674,7 +16678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -16688,7 +16692,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -16702,7 +16706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -16716,7 +16720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>51</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -16778,7 +16782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -16805,21 +16809,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -16839,7 +16843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -16859,7 +16863,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -16879,7 +16883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -16893,7 +16897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -16907,7 +16911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -16924,7 +16928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>570</v>
       </c>
@@ -16935,7 +16939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -16955,7 +16959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -16975,7 +16979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -16989,7 +16993,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -17003,7 +17007,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>753</v>
       </c>
@@ -17023,7 +17027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -17043,7 +17047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -17057,7 +17061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -17071,7 +17075,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -17088,7 +17092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>67</v>
       </c>
@@ -17099,7 +17103,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -17119,7 +17123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -17133,7 +17137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>800</v>
       </c>
@@ -17153,7 +17157,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17167,7 +17171,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -17187,7 +17191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -17201,7 +17205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -17215,7 +17219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -17229,7 +17233,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -17263,7 +17267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -17277,7 +17281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -17291,7 +17295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -17305,7 +17309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -17319,7 +17323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -17333,7 +17337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>576</v>
       </c>
@@ -17353,7 +17357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17373,7 +17377,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -17387,7 +17391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>578</v>
       </c>
@@ -17407,7 +17411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -17421,7 +17425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -17435,7 +17439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>743</v>
       </c>
@@ -17455,7 +17459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -17469,7 +17473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -17483,7 +17487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -17497,7 +17501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -17517,7 +17521,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>30</v>
       </c>
@@ -17531,7 +17535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -17551,7 +17555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17565,7 +17569,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -17585,7 +17589,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -17605,7 +17609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -17619,7 +17623,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17633,7 +17637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>589</v>
       </c>
@@ -17653,7 +17657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -17667,7 +17671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -17681,7 +17685,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -17701,7 +17705,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -17715,7 +17719,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>63</v>
       </c>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9689" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9128F693-FC4D-4584-8480-3BA5A65A7892}"/>
+  <xr:revisionPtr revIDLastSave="9690" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE20163D-96F7-4D5C-8475-66C072826867}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -5275,20 +5275,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -5363,20 +5363,20 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -5432,7 +5432,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -5448,7 +5448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>99</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>753</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>800</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>51</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>741</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>743</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>51</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>63</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>63</v>
       </c>
@@ -6492,20 +6492,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -6545,10 +6545,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>753</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>184</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>800</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>644</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>743</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>30</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>653</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>658</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -7444,20 +7444,20 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>663</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>753</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>118</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>743</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -8133,20 +8133,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8202,7 +8202,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -8218,7 +8218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -8234,7 +8234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8242,7 +8242,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>469</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -8676,20 +8676,20 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>799</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>51</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -9164,7 +9164,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>733</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>578</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>748</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>749</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>753</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>754</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>63</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>51</v>
       </c>
@@ -9707,20 +9707,20 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>753</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>800</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>521</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>733</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>776</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>743</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>782</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>785</v>
       </c>
@@ -10262,20 +10262,20 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>794</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>795</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>796</v>
       </c>
@@ -10389,20 +10389,20 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>0.48780487804878048</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>0.53658536585365857</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>0.55319148936170215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0.39393939393939392</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>-0.41666666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>0.46205357142857145</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>740</v>
       </c>
@@ -10833,20 +10833,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -11415,20 +11415,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>341</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>7</v>
       </c>
@@ -11937,20 +11937,20 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>345</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>370</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>51</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>374</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>375</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>380</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>326</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>385</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>51</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>395</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>397</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>398</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>51</v>
       </c>
@@ -12960,20 +12960,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>408</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>415</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>416</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>421</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>434</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>800</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>7</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>6</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>440</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>7</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>444</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>7</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>457</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>7</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>463</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>466</v>
       </c>
@@ -14004,20 +14004,20 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>477</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>753</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>7</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>490</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>493</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -14736,20 +14736,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>498</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>469</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>477</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>753</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>521</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>800</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>493</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>741</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>743</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>543</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>63</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>63</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -15803,20 +15803,20 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>213</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>521</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>51</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>51</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -16810,20 +16810,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>570</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>753</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>67</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>800</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>576</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>578</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>743</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>30</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>589</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -17719,7 +17719,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>63</v>
       </c>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9690" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE20163D-96F7-4D5C-8475-66C072826867}"/>
+  <xr:revisionPtr revIDLastSave="9692" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C76762F-4842-475E-BCA2-6747EB5D9756}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -4968,10 +4968,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9692" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C76762F-4842-475E-BCA2-6747EB5D9756}"/>
+  <xr:revisionPtr revIDLastSave="9693" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF8FFBC-3ADC-4045-93B6-6298856686FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -4968,6 +4968,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5274,17 +5278,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -5362,17 +5366,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -5428,7 +5432,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -5444,7 +5448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>99</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -5582,7 +5586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5596,7 +5600,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -5616,7 +5620,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>753</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5726,7 +5730,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -5746,7 +5750,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>800</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -5828,7 +5832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5876,7 +5880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5890,7 +5894,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -5910,7 +5914,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -5924,7 +5928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -5952,7 +5956,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>51</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6110,7 +6114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>741</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -6158,7 +6162,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -6172,7 +6176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>743</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>51</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>30</v>
       </c>
@@ -6282,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -6344,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -6378,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>63</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>63</v>
       </c>
@@ -6491,17 +6495,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -6541,10 +6545,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -6632,7 +6636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -6708,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -6722,7 +6726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>753</v>
       </c>
@@ -6756,7 +6760,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6838,7 +6842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -6852,7 +6856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>184</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>800</v>
       </c>
@@ -6906,7 +6910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6934,7 +6938,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>644</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -6988,7 +6992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -7016,7 +7020,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -7030,7 +7034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -7044,7 +7048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -7098,7 +7102,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -7112,7 +7116,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>743</v>
       </c>
@@ -7132,7 +7136,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>30</v>
       </c>
@@ -7166,7 +7170,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -7234,7 +7238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>653</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>658</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -7443,17 +7447,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7569,7 +7573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>663</v>
       </c>
@@ -7589,7 +7593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -7637,7 +7641,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7651,7 +7655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7665,7 +7669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>753</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -7699,7 +7703,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7747,7 +7751,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -7809,7 +7813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -7823,7 +7827,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>118</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -7871,7 +7875,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -7905,7 +7909,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7939,7 +7943,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -7953,7 +7957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -7967,7 +7971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7981,7 +7985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>743</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8095,7 +8099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -8132,17 +8136,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -8182,7 +8186,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8198,7 +8202,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -8214,7 +8218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -8230,7 +8234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8238,7 +8242,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>469</v>
       </c>
@@ -8258,7 +8262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8272,7 +8276,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8286,7 +8290,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -8334,7 +8338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -8348,7 +8352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -8438,7 +8442,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8472,7 +8476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -8500,7 +8504,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -8596,7 +8600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -8644,7 +8648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -8675,17 +8679,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>799</v>
       </c>
@@ -8725,7 +8729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>51</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8891,7 +8895,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -8911,7 +8915,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8925,7 +8929,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8939,7 +8943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8953,7 +8957,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -8967,7 +8971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -8987,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -9029,7 +9033,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -9043,7 +9047,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -9057,7 +9061,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -9077,7 +9081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9091,7 +9095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -9125,7 +9129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -9160,7 +9164,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9188,7 +9192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9208,7 +9212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>733</v>
       </c>
@@ -9228,7 +9232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9242,7 +9246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9256,7 +9260,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -9290,7 +9294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9304,7 +9308,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>578</v>
       </c>
@@ -9324,7 +9328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9338,7 +9342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9352,7 +9356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9366,7 +9370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -9454,7 +9458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>748</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>749</v>
       </c>
@@ -9502,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9516,7 +9520,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -9558,7 +9562,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>753</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>754</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -9632,7 +9636,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>63</v>
       </c>
@@ -9646,7 +9650,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -9660,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>51</v>
       </c>
@@ -9706,17 +9710,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9736,7 +9740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -9790,7 +9794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -9804,7 +9808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -9824,7 +9828,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -9838,7 +9842,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -9872,7 +9876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9886,7 +9890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>753</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>800</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>521</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9994,7 +9998,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -10014,7 +10018,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>733</v>
       </c>
@@ -10034,7 +10038,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -10054,7 +10058,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -10068,7 +10072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -10088,7 +10092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>776</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10122,7 +10126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>743</v>
       </c>
@@ -10142,7 +10146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -10176,7 +10180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10190,7 +10194,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>782</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10224,7 +10228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>785</v>
       </c>
@@ -10261,17 +10265,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10291,7 +10295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>794</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>795</v>
       </c>
@@ -10331,7 +10335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10351,7 +10355,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>796</v>
       </c>
@@ -10388,17 +10392,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -10440,7 +10444,7 @@
       </c>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -10462,7 +10466,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -10546,7 +10550,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -10567,7 +10571,7 @@
         <v>0.48780487804878048</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>0.53658536585365857</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -10609,7 +10613,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -10630,7 +10634,7 @@
         <v>0.55319148936170215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>0.39393939393939392</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -10672,7 +10676,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -10693,7 +10697,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -10714,7 +10718,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>-0.41666666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -10756,7 +10760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>0.46205357142857145</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>740</v>
       </c>
@@ -10832,17 +10836,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10862,7 +10866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -10882,7 +10886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -10902,7 +10906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10916,7 +10920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10930,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -10944,7 +10948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -10958,7 +10962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -10978,7 +10982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10992,7 +10996,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11006,7 +11010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11020,7 +11024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -11080,7 +11084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11094,7 +11098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11108,7 +11112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -11122,7 +11126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -11142,7 +11146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11184,7 +11188,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -11224,7 +11228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11252,7 +11256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -11272,7 +11276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11306,7 +11310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -11354,7 +11358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -11368,7 +11372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -11382,7 +11386,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -11414,17 +11418,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11444,7 +11448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -11464,7 +11468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11478,7 +11482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11492,7 +11496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11506,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -11568,7 +11572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11582,7 +11586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -11596,7 +11600,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -11630,7 +11634,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -11664,7 +11668,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11678,7 +11682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -11698,7 +11702,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11712,7 +11716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -11732,7 +11736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -11788,7 +11792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -11822,7 +11826,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11864,7 +11868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>341</v>
       </c>
@@ -11904,7 +11908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>7</v>
       </c>
@@ -11936,17 +11940,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -11986,7 +11990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>345</v>
       </c>
@@ -12006,7 +12010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12034,7 +12038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -12054,7 +12058,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12068,7 +12072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12082,7 +12086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -12130,7 +12134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12144,7 +12148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12172,7 +12176,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -12186,7 +12190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -12206,7 +12210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12248,7 +12252,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -12268,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -12282,7 +12286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -12296,7 +12300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -12324,7 +12328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>370</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -12372,7 +12376,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -12386,7 +12390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>51</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>374</v>
       </c>
@@ -12420,7 +12424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>375</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12468,7 +12472,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>380</v>
       </c>
@@ -12516,7 +12520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12544,7 +12548,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>326</v>
       </c>
@@ -12564,7 +12568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -12592,7 +12596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>385</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -12626,7 +12630,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -12646,7 +12650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12660,7 +12664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12674,7 +12678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -12694,7 +12698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -12722,7 +12726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -12736,7 +12740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>51</v>
       </c>
@@ -12750,7 +12754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>395</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>397</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -12804,7 +12808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -12818,7 +12822,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>398</v>
       </c>
@@ -12838,7 +12842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -12852,7 +12856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -12866,7 +12870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -12900,7 +12904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12914,7 +12918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12928,7 +12932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>51</v>
       </c>
@@ -12959,17 +12963,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12989,7 +12993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>408</v>
       </c>
@@ -13009,7 +13013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -13023,7 +13027,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -13037,7 +13041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -13051,7 +13055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -13085,7 +13089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -13099,7 +13103,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>415</v>
       </c>
@@ -13119,7 +13123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>416</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -13153,7 +13157,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -13173,7 +13177,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>421</v>
       </c>
@@ -13193,7 +13197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -13207,7 +13211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -13221,7 +13225,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -13235,7 +13239,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -13249,7 +13253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13263,7 +13267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -13277,7 +13281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -13297,7 +13301,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -13311,7 +13315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -13325,7 +13329,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -13339,7 +13343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13359,7 +13363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13373,7 +13377,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>434</v>
       </c>
@@ -13393,7 +13397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -13449,7 +13453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>800</v>
       </c>
@@ -13469,7 +13473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -13489,7 +13493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>7</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>6</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>440</v>
       </c>
@@ -13537,7 +13541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -13551,7 +13555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13571,7 +13575,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -13591,7 +13595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>7</v>
       </c>
@@ -13605,7 +13609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>444</v>
       </c>
@@ -13625,7 +13629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13645,7 +13649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -13659,7 +13663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -13673,7 +13677,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -13687,7 +13691,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -13701,7 +13705,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -13721,7 +13725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -13735,7 +13739,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -13775,7 +13779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>7</v>
       </c>
@@ -13789,7 +13793,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -13803,7 +13807,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -13823,7 +13827,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>457</v>
       </c>
@@ -13843,7 +13847,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>7</v>
       </c>
@@ -13877,7 +13881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -13897,7 +13901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -13917,7 +13921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -13931,7 +13935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -13945,7 +13949,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>463</v>
       </c>
@@ -13965,7 +13969,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>466</v>
       </c>
@@ -14003,17 +14007,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14033,7 +14037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -14073,7 +14077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -14087,7 +14091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -14101,7 +14105,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14121,7 +14125,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -14155,7 +14159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -14169,7 +14173,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -14189,7 +14193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>477</v>
       </c>
@@ -14209,7 +14213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>753</v>
       </c>
@@ -14243,7 +14247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -14271,7 +14275,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -14285,7 +14289,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14299,7 +14303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14313,7 +14317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -14333,7 +14337,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -14347,7 +14351,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14361,7 +14365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14375,7 +14379,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -14395,7 +14399,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -14415,7 +14419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -14429,7 +14433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -14463,7 +14467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -14477,7 +14481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14497,7 +14501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>7</v>
       </c>
@@ -14511,7 +14515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -14525,7 +14529,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -14539,7 +14543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>490</v>
       </c>
@@ -14559,7 +14563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -14579,7 +14583,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -14593,7 +14597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>493</v>
       </c>
@@ -14613,7 +14617,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14641,7 +14645,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14655,7 +14659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14683,7 +14687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -14703,7 +14707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -14735,17 +14739,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14765,7 +14769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>498</v>
       </c>
@@ -14785,7 +14789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14799,7 +14803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14813,7 +14817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>469</v>
       </c>
@@ -14833,7 +14837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -14847,7 +14851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -14861,7 +14865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -14875,7 +14879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14917,7 +14921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -14931,7 +14935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14951,7 +14955,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14965,7 +14969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -14979,7 +14983,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14993,7 +14997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -15013,7 +15017,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>477</v>
       </c>
@@ -15033,7 +15037,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -15047,7 +15051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -15061,7 +15065,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -15075,7 +15079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -15089,7 +15093,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>753</v>
       </c>
@@ -15109,7 +15113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>521</v>
       </c>
@@ -15169,7 +15173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -15183,7 +15187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -15197,7 +15201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>800</v>
       </c>
@@ -15231,7 +15235,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15245,7 +15249,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -15265,7 +15269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15279,7 +15283,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -15299,7 +15303,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -15313,7 +15317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -15327,7 +15331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15341,7 +15345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15355,7 +15359,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>493</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15389,7 +15393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -15403,7 +15407,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -15423,7 +15427,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -15443,7 +15447,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15457,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -15471,7 +15475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>741</v>
       </c>
@@ -15491,7 +15495,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -15505,7 +15509,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>743</v>
       </c>
@@ -15525,7 +15529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -15545,7 +15549,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -15559,7 +15563,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -15573,7 +15577,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -15593,7 +15597,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -15613,7 +15617,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -15627,7 +15631,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15641,7 +15645,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15655,7 +15659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -15675,7 +15679,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15703,7 +15707,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -15723,7 +15727,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>543</v>
       </c>
@@ -15743,7 +15747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>63</v>
       </c>
@@ -15757,7 +15761,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>63</v>
       </c>
@@ -15771,7 +15775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -15802,17 +15806,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15832,7 +15836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -15852,7 +15856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15866,7 +15870,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -15914,7 +15918,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15928,7 +15932,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15942,7 +15946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -15959,7 +15963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>213</v>
       </c>
@@ -15970,7 +15974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -15990,7 +15994,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -16004,7 +16008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -16018,7 +16022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -16032,7 +16036,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -16046,7 +16050,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -16066,7 +16070,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -16086,7 +16090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16100,7 +16104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -16120,7 +16124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16134,7 +16138,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -16154,7 +16158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16168,7 +16172,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>521</v>
       </c>
@@ -16188,7 +16192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -16202,7 +16206,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -16222,7 +16226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -16236,7 +16240,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -16256,7 +16260,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -16270,7 +16274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16284,7 +16288,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16312,7 +16316,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -16332,7 +16336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -16352,7 +16356,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -16366,7 +16370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -16400,7 +16404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16414,7 +16418,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -16428,7 +16432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -16442,7 +16446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -16456,7 +16460,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>51</v>
       </c>
@@ -16470,7 +16474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -16490,7 +16494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -16510,7 +16514,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -16530,7 +16534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -16544,7 +16548,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -16564,7 +16568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16578,7 +16582,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -16598,7 +16602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16612,7 +16616,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16626,7 +16630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -16654,7 +16658,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -16674,7 +16678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -16688,7 +16692,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -16702,7 +16706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -16716,7 +16720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>51</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -16778,7 +16782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -16809,17 +16813,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -16839,7 +16843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -16859,7 +16863,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -16879,7 +16883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -16893,7 +16897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -16907,7 +16911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -16924,7 +16928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>570</v>
       </c>
@@ -16935,7 +16939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -16955,7 +16959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -16975,7 +16979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -16989,7 +16993,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -17003,7 +17007,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>753</v>
       </c>
@@ -17023,7 +17027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -17043,7 +17047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -17057,7 +17061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -17071,7 +17075,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -17088,7 +17092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>67</v>
       </c>
@@ -17099,7 +17103,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -17119,7 +17123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -17133,7 +17137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>800</v>
       </c>
@@ -17153,7 +17157,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17167,7 +17171,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -17187,7 +17191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -17201,7 +17205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -17215,7 +17219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -17229,7 +17233,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -17263,7 +17267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -17277,7 +17281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -17291,7 +17295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -17305,7 +17309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -17319,7 +17323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -17333,7 +17337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>576</v>
       </c>
@@ -17353,7 +17357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17373,7 +17377,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -17387,7 +17391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>578</v>
       </c>
@@ -17407,7 +17411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -17421,7 +17425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -17435,7 +17439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>743</v>
       </c>
@@ -17455,7 +17459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -17469,7 +17473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -17483,7 +17487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -17497,7 +17501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -17517,7 +17521,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>30</v>
       </c>
@@ -17531,7 +17535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -17551,7 +17555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17565,7 +17569,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -17585,7 +17589,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -17605,7 +17609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -17619,7 +17623,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17633,7 +17637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>589</v>
       </c>
@@ -17653,7 +17657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -17667,7 +17671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -17681,7 +17685,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -17701,7 +17705,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -17715,7 +17719,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>63</v>
       </c>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9693" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF8FFBC-3ADC-4045-93B6-6298856686FF}"/>
+  <xr:revisionPtr revIDLastSave="9694" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2CDC9E8-FE12-409E-ABF9-8864C0C8BE28}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -5278,17 +5278,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -5366,17 +5366,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -5432,7 +5432,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -5448,7 +5448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>99</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>753</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>800</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>51</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>741</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>743</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>51</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>63</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>63</v>
       </c>
@@ -6495,17 +6495,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -6545,10 +6545,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>753</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>184</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>800</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>644</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>743</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>30</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>653</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>658</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -7447,17 +7447,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>663</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>753</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>118</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>743</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -8136,17 +8136,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8202,7 +8202,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -8218,7 +8218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -8234,7 +8234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8242,7 +8242,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>469</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -8679,17 +8679,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>799</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>51</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -9164,7 +9164,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>733</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>578</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>748</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>749</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>753</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>754</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>63</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>51</v>
       </c>
@@ -9710,17 +9710,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>753</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>800</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>521</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>733</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>776</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>743</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>782</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>785</v>
       </c>
@@ -10265,17 +10265,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>794</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>795</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>796</v>
       </c>
@@ -10392,17 +10392,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>0.48780487804878048</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>0.53658536585365857</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>0.55319148936170215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0.39393939393939392</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>-0.41666666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>0.46205357142857145</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>740</v>
       </c>
@@ -10836,17 +10836,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -11418,17 +11418,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>341</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>7</v>
       </c>
@@ -11940,17 +11940,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>345</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>370</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>51</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>374</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>375</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>380</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>326</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>385</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>51</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>395</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>397</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>398</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>51</v>
       </c>
@@ -12963,17 +12963,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>408</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>415</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>416</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>421</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>434</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>800</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>7</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>6</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>440</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>7</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>444</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>7</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>457</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>7</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>463</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>466</v>
       </c>
@@ -14007,17 +14007,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>477</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>753</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>7</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>490</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>493</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -14739,17 +14739,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>498</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>469</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>477</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>753</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>521</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>800</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>493</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>741</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>743</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>543</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>63</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>63</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -15806,17 +15806,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>213</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>521</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>51</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>51</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -16813,17 +16813,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>570</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>753</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>67</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>800</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>576</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>578</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>743</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>30</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>589</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -17719,7 +17719,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>63</v>
       </c>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9694" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2CDC9E8-FE12-409E-ABF9-8864C0C8BE28}"/>
+  <xr:revisionPtr revIDLastSave="9695" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09B07097-B6BF-43EF-B010-F404A04B848C}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -4968,10 +4968,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5278,17 +5274,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5308,7 +5304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -5328,7 +5324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -5366,17 +5362,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5396,7 +5392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -5416,7 +5412,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -5432,7 +5428,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -5448,7 +5444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5462,7 +5458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5482,7 +5478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -5496,7 +5492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5510,7 +5506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5524,7 +5520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5538,7 +5534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -5555,7 +5551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>99</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -5586,7 +5582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5600,7 +5596,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -5620,7 +5616,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>753</v>
       </c>
@@ -5640,7 +5636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -5654,7 +5650,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5664,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5682,7 +5678,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -5702,7 +5698,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +5712,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5730,7 +5726,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -5750,7 +5746,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>800</v>
       </c>
@@ -5770,7 +5766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5790,7 +5786,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -5804,7 +5800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -5818,7 +5814,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -5832,7 +5828,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5852,7 +5848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5866,7 +5862,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5880,7 +5876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5894,7 +5890,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -5914,7 +5910,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -5928,7 +5924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -5942,7 +5938,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -5956,7 +5952,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -5976,7 +5972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -6010,7 +6006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6024,7 +6020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6038,7 +6034,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6052,7 +6048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6066,7 +6062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>51</v>
       </c>
@@ -6080,7 +6076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6100,7 +6096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6114,7 +6110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -6128,7 +6124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>741</v>
       </c>
@@ -6148,7 +6144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -6162,7 +6158,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -6176,7 +6172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>743</v>
       </c>
@@ -6196,7 +6192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -6210,7 +6206,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -6224,7 +6220,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6238,7 +6234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>51</v>
       </c>
@@ -6252,7 +6248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6310,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -6334,7 +6330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -6348,7 +6344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -6362,7 +6358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -6382,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -6396,7 +6392,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -6410,7 +6406,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -6430,7 +6426,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>63</v>
       </c>
@@ -6464,7 +6460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>63</v>
       </c>
@@ -6495,17 +6491,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6525,7 +6521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -6545,10 +6541,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6602,7 +6598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6616,7 +6612,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -6636,7 +6632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6650,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6664,7 +6660,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -6678,7 +6674,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -6712,7 +6708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -6740,7 +6736,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>753</v>
       </c>
@@ -6760,7 +6756,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -6780,7 +6776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6794,7 +6790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -6814,7 +6810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -6828,7 +6824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6842,7 +6838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -6856,7 +6852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -6870,7 +6866,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>184</v>
       </c>
@@ -6890,7 +6886,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>800</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -6924,7 +6920,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6938,7 +6934,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -6958,7 +6954,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>644</v>
       </c>
@@ -6978,7 +6974,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -6992,7 +6988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -7006,7 +7002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -7020,7 +7016,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -7034,7 +7030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -7068,7 +7064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -7082,7 +7078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -7102,7 +7098,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -7116,7 +7112,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>743</v>
       </c>
@@ -7136,7 +7132,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -7156,7 +7152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>30</v>
       </c>
@@ -7170,7 +7166,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -7190,7 +7186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -7204,7 +7200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -7224,7 +7220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -7252,7 +7248,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -7272,7 +7268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -7286,7 +7282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>653</v>
       </c>
@@ -7306,7 +7302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -7320,7 +7316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -7334,7 +7330,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -7368,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -7382,7 +7378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>658</v>
       </c>
@@ -7402,7 +7398,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -7447,17 +7443,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7477,7 +7473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -7497,7 +7493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7511,7 +7507,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7531,7 +7527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -7545,7 +7541,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7559,7 +7555,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>663</v>
       </c>
@@ -7593,7 +7589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7607,7 +7603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -7641,7 +7637,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7655,7 +7651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7669,7 +7665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>753</v>
       </c>
@@ -7689,7 +7685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -7703,7 +7699,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -7717,7 +7713,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -7731,7 +7727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7751,7 +7747,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -7771,7 +7767,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7785,7 +7781,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -7799,7 +7795,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -7813,7 +7809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -7827,7 +7823,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -7844,7 +7840,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>118</v>
       </c>
@@ -7855,7 +7851,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -7875,7 +7871,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -7895,7 +7891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -7909,7 +7905,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7923,7 +7919,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7943,7 +7939,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -7957,7 +7953,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -7971,7 +7967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7985,7 +7981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -8005,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>743</v>
       </c>
@@ -8025,7 +8021,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -8045,7 +8041,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -8065,7 +8061,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -8085,7 +8081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8099,7 +8095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -8136,17 +8132,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8166,7 +8162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -8186,7 +8182,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8202,7 +8198,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -8218,7 +8214,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -8234,7 +8230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8242,7 +8238,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>469</v>
       </c>
@@ -8262,7 +8258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8276,7 +8272,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8290,7 +8286,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8310,7 +8306,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -8324,7 +8320,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -8338,7 +8334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -8352,7 +8348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8366,7 +8362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8376,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -8394,7 +8390,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -8414,7 +8410,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -8428,7 +8424,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -8442,7 +8438,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8476,7 +8472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -8490,7 +8486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -8504,7 +8500,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -8524,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -8538,7 +8534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8558,7 +8554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -8572,7 +8568,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -8586,7 +8582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -8600,7 +8596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -8614,7 +8610,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -8648,7 +8644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -8679,17 +8675,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8709,7 +8705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>799</v>
       </c>
@@ -8729,7 +8725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -8743,7 +8739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8757,7 +8753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -8777,7 +8773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8791,7 +8787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8805,7 +8801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>51</v>
       </c>
@@ -8833,7 +8829,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -8853,7 +8849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -8867,7 +8863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -8881,7 +8877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8895,7 +8891,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -8915,7 +8911,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8929,7 +8925,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8957,7 +8953,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -8971,7 +8967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -8991,7 +8987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -9005,7 +9001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -9019,7 +9015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -9033,7 +9029,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -9047,7 +9043,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -9061,7 +9057,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -9081,7 +9077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9095,7 +9091,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9109,7 +9105,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -9143,7 +9139,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -9164,7 +9160,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -9178,7 +9174,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -9192,7 +9188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9212,7 +9208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>733</v>
       </c>
@@ -9232,7 +9228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -9246,7 +9242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -9260,7 +9256,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9280,7 +9276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -9294,7 +9290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9308,7 +9304,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>578</v>
       </c>
@@ -9328,7 +9324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9342,7 +9338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9370,7 +9366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -9390,7 +9386,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -9410,7 +9406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -9424,7 +9420,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9444,7 +9440,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>748</v>
       </c>
@@ -9472,7 +9468,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -9486,7 +9482,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>749</v>
       </c>
@@ -9506,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9520,7 +9516,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -9534,7 +9530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -9548,7 +9544,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -9562,7 +9558,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>753</v>
       </c>
@@ -9582,7 +9578,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>754</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9616,7 +9612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -9636,7 +9632,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>63</v>
       </c>
@@ -9650,7 +9646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -9664,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -9678,7 +9674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>51</v>
       </c>
@@ -9710,17 +9706,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9740,7 +9736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -9760,7 +9756,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -9774,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -9794,7 +9790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -9808,7 +9804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -9828,7 +9824,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -9842,7 +9838,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -9862,7 +9858,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -9876,7 +9872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -9890,7 +9886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>753</v>
       </c>
@@ -9910,7 +9906,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>800</v>
       </c>
@@ -9930,7 +9926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -9944,7 +9940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -9964,7 +9960,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>521</v>
       </c>
@@ -9984,7 +9980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9998,7 +9994,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -10018,7 +10014,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>733</v>
       </c>
@@ -10038,7 +10034,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -10058,7 +10054,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -10072,7 +10068,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -10092,7 +10088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>776</v>
       </c>
@@ -10112,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10126,7 +10122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>743</v>
       </c>
@@ -10146,7 +10142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -10180,7 +10176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10194,7 +10190,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>782</v>
       </c>
@@ -10214,7 +10210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10228,7 +10224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>785</v>
       </c>
@@ -10265,17 +10261,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10295,7 +10291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>794</v>
       </c>
@@ -10315,7 +10311,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>795</v>
       </c>
@@ -10335,7 +10331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10355,7 +10351,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>796</v>
       </c>
@@ -10392,17 +10388,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -10422,7 +10418,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -10444,7 +10440,7 @@
       </c>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -10466,7 +10462,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -10487,7 +10483,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -10508,7 +10504,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -10529,7 +10525,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -10550,7 +10546,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -10571,7 +10567,7 @@
         <v>0.48780487804878048</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -10592,7 +10588,7 @@
         <v>0.53658536585365857</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -10613,7 +10609,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>0.55319148936170215</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -10655,7 +10651,7 @@
         <v>0.39393939393939392</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -10676,7 +10672,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -10697,7 +10693,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -10718,7 +10714,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -10739,7 +10735,7 @@
         <v>-0.41666666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -10760,7 +10756,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -10785,7 +10781,7 @@
         <v>0.46205357142857145</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>740</v>
       </c>
@@ -10836,17 +10832,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10866,7 +10862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -10886,7 +10882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -10906,7 +10902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10920,7 +10916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -10934,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -10948,7 +10944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -10962,7 +10958,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -10982,7 +10978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10996,7 +10992,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -11010,7 +11006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -11024,7 +11020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -11044,7 +11040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -11064,7 +11060,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -11084,7 +11080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11098,7 +11094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -11112,7 +11108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -11146,7 +11142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11160,7 +11156,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -11174,7 +11170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -11188,7 +11184,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -11208,7 +11204,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -11228,7 +11224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -11242,7 +11238,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -11256,7 +11252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -11276,7 +11272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -11296,7 +11292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11310,7 +11306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11324,7 +11320,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -11344,7 +11340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -11358,7 +11354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -11372,7 +11368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -11386,7 +11382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -11418,17 +11414,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11448,7 +11444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -11468,7 +11464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11482,7 +11478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11496,7 +11492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11510,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -11524,7 +11520,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11544,7 +11540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -11558,7 +11554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -11572,7 +11568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11586,7 +11582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -11600,7 +11596,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -11620,7 +11616,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -11634,7 +11630,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -11654,7 +11650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -11668,7 +11664,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -11682,7 +11678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -11702,7 +11698,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11716,7 +11712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -11736,7 +11732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -11750,7 +11746,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -11764,7 +11760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -11778,7 +11774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -11792,7 +11788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -11806,7 +11802,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -11826,7 +11822,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -11840,7 +11836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11854,7 +11850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11868,7 +11864,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>341</v>
       </c>
@@ -11908,7 +11904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>7</v>
       </c>
@@ -11940,17 +11936,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11970,7 +11966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -11990,7 +11986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>345</v>
       </c>
@@ -12010,7 +12006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12024,7 +12020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12038,7 +12034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -12058,7 +12054,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12072,7 +12068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12086,7 +12082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12100,7 +12096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -12114,7 +12110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -12134,7 +12130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -12148,7 +12144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12158,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -12176,7 +12172,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -12190,7 +12186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -12210,7 +12206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -12224,7 +12220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -12238,7 +12234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12252,7 +12248,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -12272,7 +12268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -12286,7 +12282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -12300,7 +12296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -12314,7 +12310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -12328,7 +12324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>370</v>
       </c>
@@ -12348,7 +12344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -12362,7 +12358,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -12376,7 +12372,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -12390,7 +12386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>51</v>
       </c>
@@ -12404,7 +12400,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>374</v>
       </c>
@@ -12424,7 +12420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>375</v>
       </c>
@@ -12444,7 +12440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -12458,7 +12454,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12472,7 +12468,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12486,7 +12482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -12500,7 +12496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>380</v>
       </c>
@@ -12520,7 +12516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12534,7 +12530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12548,7 +12544,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>326</v>
       </c>
@@ -12568,7 +12564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -12582,7 +12578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -12596,7 +12592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>385</v>
       </c>
@@ -12616,7 +12612,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -12630,7 +12626,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -12650,7 +12646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -12664,7 +12660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -12678,7 +12674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -12698,7 +12694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -12712,7 +12708,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -12726,7 +12722,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -12740,7 +12736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>51</v>
       </c>
@@ -12754,7 +12750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>395</v>
       </c>
@@ -12774,7 +12770,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>397</v>
       </c>
@@ -12794,7 +12790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -12808,7 +12804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -12822,7 +12818,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>398</v>
       </c>
@@ -12842,7 +12838,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -12856,7 +12852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -12870,7 +12866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -12890,7 +12886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -12904,7 +12900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12918,7 +12914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12932,7 +12928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>51</v>
       </c>
@@ -12963,17 +12959,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>408</v>
       </c>
@@ -13013,7 +13009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -13027,7 +13023,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -13041,7 +13037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -13055,7 +13051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -13075,7 +13071,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -13089,7 +13085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -13103,7 +13099,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>415</v>
       </c>
@@ -13123,7 +13119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>416</v>
       </c>
@@ -13143,7 +13139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -13157,7 +13153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -13177,7 +13173,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>421</v>
       </c>
@@ -13197,7 +13193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -13211,7 +13207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -13225,7 +13221,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -13239,7 +13235,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -13253,7 +13249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13267,7 +13263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -13281,7 +13277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -13301,7 +13297,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -13315,7 +13311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -13329,7 +13325,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -13343,7 +13339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13363,7 +13359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -13377,7 +13373,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>434</v>
       </c>
@@ -13397,7 +13393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -13411,7 +13407,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13425,7 +13421,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -13439,7 +13435,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -13453,7 +13449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>800</v>
       </c>
@@ -13473,7 +13469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -13493,7 +13489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>7</v>
       </c>
@@ -13507,7 +13503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>6</v>
       </c>
@@ -13521,7 +13517,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>440</v>
       </c>
@@ -13541,7 +13537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -13555,7 +13551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13575,7 +13571,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -13595,7 +13591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>7</v>
       </c>
@@ -13609,7 +13605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>444</v>
       </c>
@@ -13629,7 +13625,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13649,7 +13645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -13663,7 +13659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -13677,7 +13673,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -13691,7 +13687,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -13705,7 +13701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -13725,7 +13721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -13739,7 +13735,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -13759,7 +13755,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -13779,7 +13775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>7</v>
       </c>
@@ -13793,7 +13789,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -13807,7 +13803,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -13827,7 +13823,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>457</v>
       </c>
@@ -13847,7 +13843,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -13867,7 +13863,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>7</v>
       </c>
@@ -13881,7 +13877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -13901,7 +13897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -13921,7 +13917,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -13935,7 +13931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -13949,7 +13945,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>463</v>
       </c>
@@ -13969,7 +13965,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>466</v>
       </c>
@@ -14007,17 +14003,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14037,7 +14033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -14057,7 +14053,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -14077,7 +14073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -14091,7 +14087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -14105,7 +14101,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14125,7 +14121,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -14139,7 +14135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -14159,7 +14155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -14173,7 +14169,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -14193,7 +14189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>477</v>
       </c>
@@ -14213,7 +14209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -14227,7 +14223,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>753</v>
       </c>
@@ -14247,7 +14243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -14261,7 +14257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -14275,7 +14271,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -14289,7 +14285,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14303,7 +14299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -14317,7 +14313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -14337,7 +14333,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -14351,7 +14347,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14365,7 +14361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14379,7 +14375,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -14399,7 +14395,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -14419,7 +14415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -14433,7 +14429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -14447,7 +14443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -14467,7 +14463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -14481,7 +14477,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14501,7 +14497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>7</v>
       </c>
@@ -14515,7 +14511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -14529,7 +14525,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -14543,7 +14539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>490</v>
       </c>
@@ -14563,7 +14559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -14583,7 +14579,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -14597,7 +14593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>493</v>
       </c>
@@ -14617,7 +14613,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -14631,7 +14627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14645,7 +14641,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14659,7 +14655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -14673,7 +14669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -14687,7 +14683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -14707,7 +14703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -14739,17 +14735,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -14769,7 +14765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>498</v>
       </c>
@@ -14789,7 +14785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14803,7 +14799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14817,7 +14813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>469</v>
       </c>
@@ -14837,7 +14833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -14851,7 +14847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -14865,7 +14861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -14879,7 +14875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -14893,7 +14889,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14907,7 +14903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14921,7 +14917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -14935,7 +14931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14955,7 +14951,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14969,7 +14965,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -14983,7 +14979,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14997,7 +14993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -15017,7 +15013,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>477</v>
       </c>
@@ -15037,7 +15033,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -15051,7 +15047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -15065,7 +15061,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -15079,7 +15075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -15093,7 +15089,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>753</v>
       </c>
@@ -15113,7 +15109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -15133,7 +15129,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -15153,7 +15149,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>521</v>
       </c>
@@ -15173,7 +15169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -15187,7 +15183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -15201,7 +15197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15215,7 +15211,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>800</v>
       </c>
@@ -15235,7 +15231,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15249,7 +15245,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -15269,7 +15265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -15283,7 +15279,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -15303,7 +15299,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -15317,7 +15313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -15331,7 +15327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15345,7 +15341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15359,7 +15355,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>493</v>
       </c>
@@ -15379,7 +15375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15393,7 +15389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -15407,7 +15403,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -15427,7 +15423,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -15447,7 +15443,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15461,7 +15457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -15475,7 +15471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>741</v>
       </c>
@@ -15495,7 +15491,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -15509,7 +15505,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>743</v>
       </c>
@@ -15529,7 +15525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -15549,7 +15545,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -15563,7 +15559,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -15577,7 +15573,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -15597,7 +15593,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -15617,7 +15613,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -15631,7 +15627,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -15645,7 +15641,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -15659,7 +15655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -15679,7 +15675,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -15693,7 +15689,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15707,7 +15703,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -15727,7 +15723,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>543</v>
       </c>
@@ -15747,7 +15743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>63</v>
       </c>
@@ -15761,7 +15757,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>63</v>
       </c>
@@ -15775,7 +15771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -15806,17 +15802,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15836,7 +15832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -15856,7 +15852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15870,7 +15866,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15884,7 +15880,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15904,7 +15900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -15918,7 +15914,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15932,7 +15928,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15946,7 +15942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -15963,7 +15959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>213</v>
       </c>
@@ -15974,7 +15970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -15994,7 +15990,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -16008,7 +16004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -16022,7 +16018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -16036,7 +16032,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -16050,7 +16046,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -16070,7 +16066,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -16090,7 +16086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -16104,7 +16100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -16124,7 +16120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -16138,7 +16134,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -16158,7 +16154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16172,7 +16168,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>521</v>
       </c>
@@ -16192,7 +16188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -16206,7 +16202,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -16226,7 +16222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -16240,7 +16236,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -16260,7 +16256,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -16274,7 +16270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -16288,7 +16284,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16302,7 +16298,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16316,7 +16312,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -16336,7 +16332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -16356,7 +16352,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -16370,7 +16366,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -16390,7 +16386,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -16404,7 +16400,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16418,7 +16414,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -16432,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -16446,7 +16442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -16460,7 +16456,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>51</v>
       </c>
@@ -16474,7 +16470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>741</v>
       </c>
@@ -16494,7 +16490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>743</v>
       </c>
@@ -16514,7 +16510,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -16534,7 +16530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -16548,7 +16544,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -16568,7 +16564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16582,7 +16578,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -16602,7 +16598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -16616,7 +16612,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -16630,7 +16626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -16644,7 +16640,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>51</v>
       </c>
@@ -16658,7 +16654,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -16678,7 +16674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -16692,7 +16688,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -16706,7 +16702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -16720,7 +16716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>51</v>
       </c>
@@ -16734,7 +16730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -16754,7 +16750,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>63</v>
       </c>
@@ -16768,7 +16764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -16782,7 +16778,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -16813,17 +16809,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -16843,7 +16839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -16863,7 +16859,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -16883,7 +16879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -16897,7 +16893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -16911,7 +16907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -16928,7 +16924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>570</v>
       </c>
@@ -16939,7 +16935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -16959,7 +16955,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -16979,7 +16975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -16993,7 +16989,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -17007,7 +17003,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>753</v>
       </c>
@@ -17027,7 +17023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -17047,7 +17043,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -17061,7 +17057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -17075,7 +17071,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -17092,7 +17088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>67</v>
       </c>
@@ -17103,7 +17099,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -17123,7 +17119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -17137,7 +17133,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>800</v>
       </c>
@@ -17157,7 +17153,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17171,7 +17167,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -17191,7 +17187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -17205,7 +17201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -17219,7 +17215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -17233,7 +17229,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -17253,7 +17249,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -17267,7 +17263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -17281,7 +17277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -17295,7 +17291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -17309,7 +17305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -17323,7 +17319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -17337,7 +17333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>576</v>
       </c>
@@ -17357,7 +17353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17377,7 +17373,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -17391,7 +17387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>578</v>
       </c>
@@ -17411,7 +17407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -17425,7 +17421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -17439,7 +17435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>743</v>
       </c>
@@ -17459,7 +17455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -17473,7 +17469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -17487,7 +17483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -17501,7 +17497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -17521,7 +17517,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>30</v>
       </c>
@@ -17535,7 +17531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -17555,7 +17551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17569,7 +17565,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -17589,7 +17585,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -17609,7 +17605,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -17623,7 +17619,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17637,7 +17633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>589</v>
       </c>
@@ -17657,7 +17653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -17671,7 +17667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -17685,7 +17681,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -17705,7 +17701,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>63</v>
       </c>
@@ -17719,7 +17715,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>63</v>
       </c>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9695" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09B07097-B6BF-43EF-B010-F404A04B848C}"/>
+  <xr:revisionPtr revIDLastSave="9696" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99190296-3D4E-463A-BD43-FA9F2076C1A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="797">
   <si>
     <t>Semifinal</t>
   </si>
@@ -764,9 +764,6 @@
     <t>Daria Kasatkina (RUSSIA)</t>
   </si>
   <si>
-    <t>6-7(4) 6-3 6-3</t>
-  </si>
-  <si>
     <t>Lara Arruabarrena (SPAIN)</t>
   </si>
   <si>
@@ -887,9 +884,6 @@
     <t>Ioana Gașpar (ROMANIA)</t>
   </si>
   <si>
-    <t>7-6(7) 7-6(5)</t>
-  </si>
-  <si>
     <t>ITF MOLLERUSA ($10,000)</t>
   </si>
   <si>
@@ -1133,9 +1127,6 @@
     <t>Tereza Mrdeža (CROATIA)</t>
   </si>
   <si>
-    <t>6-3 7-6(10)</t>
-  </si>
-  <si>
     <t>Marina Giral Lores (VENEZUELA)</t>
   </si>
   <si>
@@ -1487,9 +1478,6 @@
     <t>BRASIL TENNIS CUP</t>
   </si>
   <si>
-    <t>6-4 2-6 7-5</t>
-  </si>
-  <si>
     <t>Kristina Barrois (GERMANY)</t>
   </si>
   <si>
@@ -1859,9 +1847,6 @@
     <t>6-0 3-6 6-1</t>
   </si>
   <si>
-    <t>7-6(3) 3-6 7-5</t>
-  </si>
-  <si>
     <t>Kateryna Bondarenko (UKRAINE)</t>
   </si>
   <si>
@@ -2213,9 +2198,6 @@
     <t>6-2 6-7(5) 6-3</t>
   </si>
   <si>
-    <t>6-2 7-6(4)</t>
-  </si>
-  <si>
     <t>Iga Świątek (POLAND)</t>
   </si>
   <si>
@@ -2454,6 +2436,12 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>7-6(8) 7-6</t>
+  </si>
+  <si>
+    <t>6-3 7-6</t>
   </si>
 </sst>
 </file>
@@ -4968,10 +4956,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5009,7 +5001,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5115,7 +5107,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5257,7 +5249,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5271,7 +5263,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,7 +5298,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -5315,7 +5307,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -5326,7 +5318,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -5335,7 +5327,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -5359,7 +5351,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,7 +5401,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5425,7 +5417,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5449,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -5483,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -5559,7 +5551,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5593,7 +5585,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>602</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5607,7 +5599,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -5618,7 +5610,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -5627,7 +5619,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -5641,13 +5633,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5655,13 +5647,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5675,7 +5667,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5695,7 +5687,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5709,7 +5701,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5717,13 +5709,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5737,18 +5729,18 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -5783,7 +5775,7 @@
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5811,7 +5803,7 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -5859,7 +5851,7 @@
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5887,7 +5879,7 @@
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5901,13 +5893,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5915,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -5935,7 +5927,7 @@
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5949,7 +5941,7 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5983,7 +5975,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -6087,7 +6079,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
@@ -6101,7 +6093,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -6126,7 +6118,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -6135,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -6155,7 +6147,7 @@
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6163,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
@@ -6174,7 +6166,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -6183,7 +6175,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -6203,7 +6195,7 @@
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6217,7 +6209,7 @@
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6273,7 +6265,7 @@
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -6301,7 +6293,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>21</v>
@@ -6349,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>21</v>
@@ -6389,7 +6381,7 @@
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6403,7 +6395,7 @@
         <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6423,7 +6415,7 @@
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -6475,6 +6467,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -6488,7 +6481,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6538,7 +6531,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6555,13 +6548,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6569,13 +6562,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6589,7 +6582,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -6603,13 +6596,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6623,7 +6616,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -6657,7 +6650,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,7 +6664,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6679,7 +6672,7 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -6719,7 +6712,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6733,12 +6726,12 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -6747,13 +6740,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6767,7 +6760,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -6792,7 +6785,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -6801,7 +6794,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -6829,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -6843,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -6863,7 +6856,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6877,18 +6870,18 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -6917,7 +6910,7 @@
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6931,7 +6924,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6945,18 +6938,18 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -6971,7 +6964,7 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,7 +6972,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -7013,7 +7006,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7055,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -7095,7 +7088,7 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7103,18 +7096,18 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -7129,7 +7122,7 @@
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7157,13 +7150,13 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7191,7 +7184,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -7211,7 +7204,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -7225,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
@@ -7245,7 +7238,7 @@
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7259,7 +7252,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>22</v>
@@ -7284,7 +7277,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -7293,7 +7286,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -7307,7 +7300,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -7321,13 +7314,13 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7335,13 +7328,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7369,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>21</v>
@@ -7380,7 +7373,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -7395,7 +7388,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7409,7 +7402,7 @@
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -7417,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>21</v>
@@ -7427,6 +7420,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -7440,7 +7434,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7498,13 +7492,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7518,7 +7512,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -7538,7 +7532,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7552,7 +7546,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7571,7 +7565,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -7580,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -7608,13 +7602,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7628,13 +7622,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7642,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -7665,9 +7659,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -7696,7 +7695,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7710,7 +7709,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7718,7 +7717,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -7738,18 +7737,18 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -7758,13 +7757,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7772,13 +7771,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7792,7 +7791,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7820,7 +7819,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7831,13 +7830,13 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7853,7 +7852,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -7868,7 +7867,7 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7882,7 +7881,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
@@ -7896,13 +7895,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7916,7 +7915,7 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,13 +7929,13 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7944,7 +7943,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -7958,7 +7957,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -7992,7 +7991,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -8003,7 +8002,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8018,7 +8017,7 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8032,13 +8031,13 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8052,13 +8051,13 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8086,7 +8085,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -8112,10 +8111,11 @@
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -8129,7 +8129,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8173,13 +8173,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8189,13 +8189,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8205,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -8249,7 +8249,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8263,13 +8263,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,13 +8277,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F9" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8297,13 +8297,13 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8311,13 +8311,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8325,7 +8325,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -8353,7 +8353,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -8367,13 +8367,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8387,7 +8387,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>483</v>
+        <v>795</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8401,13 +8401,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8415,13 +8415,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
+        <v>692</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
         <v>697</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8429,13 +8429,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8455,7 +8455,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -8477,7 +8477,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -8497,7 +8497,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8511,7 +8511,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -8525,7 +8525,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -8559,13 +8559,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -8621,13 +8621,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8635,7 +8635,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -8649,16 +8649,17 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -8672,7 +8673,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8707,7 +8708,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8730,7 +8731,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -8744,7 +8745,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -8764,7 +8765,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -8778,7 +8779,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8806,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -8826,7 +8827,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8840,7 +8841,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -8854,7 +8855,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -8868,7 +8869,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -8882,13 +8883,13 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8902,13 +8903,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8922,7 +8920,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8930,7 +8928,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -8950,7 +8948,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8958,7 +8956,7 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -8992,7 +8990,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -9006,7 +9004,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -9026,7 +9024,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9034,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -9048,13 +9046,13 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9068,7 +9066,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
@@ -9082,7 +9080,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -9096,13 +9094,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9116,7 +9114,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -9136,7 +9134,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -9150,7 +9148,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -9165,13 +9163,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -9179,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
@@ -9199,7 +9197,7 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
@@ -9210,7 +9208,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -9233,7 +9231,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
@@ -9247,13 +9245,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -9267,7 +9265,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
@@ -9281,7 +9279,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -9295,18 +9293,18 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -9315,7 +9313,7 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -9329,7 +9327,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -9343,7 +9341,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -9357,7 +9355,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -9368,7 +9366,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -9383,12 +9381,12 @@
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -9397,7 +9395,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
@@ -9411,13 +9409,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9437,7 +9435,7 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9445,7 +9443,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -9456,7 +9454,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -9465,7 +9463,7 @@
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9473,18 +9471,18 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -9493,7 +9491,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
@@ -9513,7 +9511,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9521,7 +9519,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -9535,13 +9533,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9549,18 +9547,18 @@
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -9569,18 +9567,18 @@
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -9589,7 +9587,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -9603,7 +9601,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>21</v>
@@ -9629,7 +9627,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9637,13 +9635,13 @@
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9651,7 +9649,7 @@
         <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -9665,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -9679,7 +9677,7 @@
         <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -9703,7 +9701,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9747,13 +9745,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9761,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -9781,7 +9779,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -9795,7 +9793,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -9821,7 +9819,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9829,13 +9827,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9855,7 +9853,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9863,7 +9861,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -9888,7 +9886,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -9897,18 +9895,18 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -9917,13 +9915,10 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9931,7 +9926,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -9957,12 +9952,12 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -9971,7 +9966,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -9985,13 +9980,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10005,18 +10000,18 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -10025,13 +10020,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10045,13 +10040,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10059,7 +10054,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -10079,7 +10074,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
@@ -10090,7 +10085,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -10099,7 +10094,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -10113,7 +10108,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -10124,7 +10119,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -10133,7 +10128,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -10153,13 +10148,13 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10167,7 +10162,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -10181,18 +10176,18 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -10201,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -10215,7 +10210,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
@@ -10226,7 +10221,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -10235,13 +10230,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -10258,7 +10253,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10293,7 +10288,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -10302,18 +10297,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -10322,7 +10317,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -10342,18 +10337,18 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -10362,7 +10357,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -10385,7 +10380,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10403,10 +10398,10 @@
         <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>142</v>
@@ -10783,7 +10778,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B19" s="5">
         <f>AVERAGE(B2:B17)</f>
@@ -10829,7 +10824,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10864,7 +10859,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -10873,7 +10868,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -10884,7 +10879,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -10893,7 +10888,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -10907,7 +10902,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -10921,7 +10916,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -10935,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -10949,7 +10944,7 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -10960,7 +10955,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -10969,7 +10964,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -10983,7 +10978,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -10997,7 +10992,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -11011,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -11022,7 +11017,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -11031,7 +11026,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -11042,7 +11037,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -11051,18 +11046,15 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -11071,7 +11063,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -11085,7 +11077,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -11099,7 +11091,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -11113,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -11124,7 +11116,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -11133,7 +11125,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -11147,13 +11139,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11161,7 +11153,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -11175,18 +11167,18 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -11195,18 +11187,18 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -11229,13 +11221,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11243,7 +11235,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
@@ -11254,7 +11246,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -11263,7 +11255,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -11274,7 +11266,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -11283,7 +11275,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -11297,7 +11289,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -11311,18 +11303,18 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
         <v>296</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -11331,7 +11323,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -11345,7 +11337,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -11359,7 +11351,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -11373,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
@@ -11387,13 +11379,13 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -11411,7 +11403,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11446,7 +11438,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -11455,7 +11447,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -11469,7 +11461,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -11483,7 +11475,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -11497,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -11511,7 +11503,7 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -11522,7 +11514,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -11531,7 +11523,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -11545,7 +11537,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -11559,7 +11551,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -11573,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -11587,13 +11579,13 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11607,13 +11599,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11621,18 +11613,18 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -11641,13 +11633,10 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11655,13 +11644,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11680,7 +11669,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -11689,13 +11678,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11714,7 +11703,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -11723,7 +11712,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -11737,13 +11726,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11751,7 +11740,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -11765,7 +11754,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -11779,7 +11768,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -11804,7 +11793,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -11813,13 +11802,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11827,7 +11816,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
@@ -11841,7 +11830,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -11861,12 +11850,12 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -11875,7 +11864,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
@@ -11886,7 +11875,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -11895,7 +11884,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -11909,13 +11898,13 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -11933,7 +11922,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11968,7 +11957,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -11977,7 +11966,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -11988,7 +11977,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -11997,7 +11986,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -12011,7 +12000,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -12025,7 +12014,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -12036,7 +12025,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -12045,13 +12034,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12059,7 +12048,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -12073,7 +12062,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -12087,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -12101,7 +12090,7 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -12112,7 +12101,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -12121,7 +12110,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -12135,7 +12124,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -12155,7 +12144,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12163,13 +12152,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>360</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12177,7 +12166,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -12188,7 +12177,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -12197,7 +12186,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -12211,7 +12200,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -12225,7 +12214,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -12239,18 +12228,18 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -12259,7 +12248,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -12273,7 +12262,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -12287,7 +12276,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -12301,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -12315,7 +12304,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
@@ -12326,7 +12315,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -12335,7 +12324,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -12349,13 +12338,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -12363,13 +12352,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -12377,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -12391,18 +12380,18 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -12422,7 +12411,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -12431,7 +12420,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
@@ -12445,13 +12434,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -12459,7 +12448,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -12473,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -12498,7 +12487,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -12507,7 +12496,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -12535,7 +12524,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
@@ -12546,7 +12535,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -12555,7 +12544,7 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
@@ -12569,7 +12558,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
@@ -12594,7 +12583,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -12609,7 +12598,7 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -12617,18 +12606,18 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -12637,7 +12626,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -12651,7 +12640,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -12665,7 +12654,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -12685,7 +12674,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -12705,7 +12694,7 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -12727,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -12741,7 +12730,7 @@
         <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -12752,7 +12741,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -12761,7 +12750,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
@@ -12772,7 +12761,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
@@ -12781,7 +12770,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -12795,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
@@ -12809,7 +12798,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
@@ -12820,7 +12809,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -12829,7 +12818,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
@@ -12843,7 +12832,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>22</v>
@@ -12857,7 +12846,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>21</v>
@@ -12868,7 +12857,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -12877,7 +12866,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>22</v>
@@ -12891,7 +12880,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>22</v>
@@ -12905,7 +12894,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -12919,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -12933,16 +12922,17 @@
         <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -12956,7 +12946,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12991,7 +12981,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -13000,7 +12990,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -13014,13 +13004,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13028,7 +13018,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -13042,7 +13032,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -13062,13 +13052,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -13096,12 +13086,12 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -13121,7 +13111,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -13144,7 +13134,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -13155,7 +13145,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -13164,18 +13154,23 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -13184,7 +13179,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -13198,7 +13193,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -13212,13 +13207,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -13226,13 +13221,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13240,7 +13235,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -13268,7 +13263,7 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -13294,7 +13289,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -13322,7 +13317,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -13350,7 +13345,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -13370,12 +13365,12 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -13384,7 +13379,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -13398,7 +13393,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>22</v>
@@ -13412,13 +13407,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13451,7 +13446,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -13480,7 +13475,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -13508,18 +13503,18 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -13528,7 +13523,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -13568,7 +13563,7 @@
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13596,7 +13591,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -13607,7 +13602,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -13616,7 +13611,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -13627,7 +13622,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -13636,7 +13631,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -13670,7 +13665,7 @@
         <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13684,7 +13679,7 @@
         <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13692,7 +13687,7 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
@@ -13703,7 +13698,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
@@ -13726,13 +13721,13 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13752,7 +13747,7 @@
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13766,7 +13761,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -13780,13 +13775,13 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13794,13 +13789,13 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13820,12 +13815,12 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -13840,7 +13835,7 @@
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -13860,7 +13855,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13888,7 +13883,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>21</v>
@@ -13908,13 +13903,13 @@
         <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -13922,7 +13917,7 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -13947,7 +13942,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -13956,18 +13951,18 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -13982,7 +13977,7 @@
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -14000,7 +13995,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14050,12 +14045,12 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -14064,7 +14059,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -14078,7 +14073,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -14098,7 +14093,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -14118,7 +14113,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -14126,7 +14121,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -14166,12 +14161,12 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -14191,7 +14186,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -14200,7 +14195,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -14220,12 +14215,12 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>478</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -14234,7 +14229,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -14248,7 +14243,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -14268,7 +14263,7 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14282,7 +14277,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14330,7 +14325,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -14338,13 +14333,13 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -14372,7 +14367,7 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -14386,13 +14381,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -14406,7 +14401,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -14420,7 +14415,7 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -14434,7 +14429,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -14445,7 +14440,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -14488,7 +14483,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -14516,13 +14511,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14541,7 +14536,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -14550,7 +14545,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -14576,7 +14571,7 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -14595,7 +14590,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
@@ -14604,13 +14599,13 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -14618,7 +14613,7 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -14638,7 +14633,7 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -14694,7 +14689,7 @@
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -14714,7 +14709,7 @@
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -14732,7 +14727,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14767,7 +14762,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -14790,13 +14785,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14804,7 +14799,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -14815,7 +14810,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -14824,7 +14819,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -14838,7 +14833,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -14852,7 +14847,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -14866,7 +14861,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -14908,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -14942,13 +14937,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -14976,7 +14971,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>492</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14995,7 +14990,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -15004,18 +14999,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -15024,13 +15019,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -15038,7 +15033,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -15052,13 +15047,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -15066,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -15086,12 +15081,12 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -15120,18 +15115,18 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -15146,12 +15141,12 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -15160,7 +15155,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -15188,7 +15183,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
@@ -15202,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -15213,7 +15208,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -15228,7 +15223,7 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -15242,7 +15237,7 @@
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -15256,7 +15251,7 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -15276,7 +15271,7 @@
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -15290,13 +15285,13 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -15332,7 +15327,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -15352,12 +15347,12 @@
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -15366,7 +15361,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -15380,7 +15375,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -15400,7 +15395,7 @@
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -15420,7 +15415,7 @@
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -15440,7 +15435,7 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -15473,7 +15468,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -15482,13 +15477,13 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -15502,12 +15497,12 @@
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -15556,7 +15551,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -15570,7 +15565,7 @@
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -15590,7 +15585,7 @@
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -15624,7 +15619,7 @@
         <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -15638,7 +15633,7 @@
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -15666,7 +15661,7 @@
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>22</v>
@@ -15700,7 +15695,7 @@
         <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -15720,12 +15715,12 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -15754,7 +15749,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -15786,6 +15781,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -15799,7 +15795,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15863,7 +15859,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15877,7 +15873,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15911,7 +15907,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -15925,7 +15921,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -15987,7 +15983,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -16029,7 +16025,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16043,7 +16039,7 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -16063,12 +16059,12 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -16111,7 +16107,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -16131,7 +16127,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -16165,12 +16161,12 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -16199,12 +16195,12 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -16213,7 +16209,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -16233,7 +16229,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -16253,7 +16249,7 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -16281,7 +16277,7 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16349,7 +16345,7 @@
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -16411,7 +16407,7 @@
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -16453,7 +16449,7 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16472,7 +16468,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -16481,7 +16477,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
@@ -16492,7 +16488,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -16501,13 +16497,13 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -16521,7 +16517,7 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -16541,7 +16537,7 @@
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -16575,7 +16571,7 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -16609,7 +16605,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -16651,7 +16647,7 @@
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -16685,7 +16681,7 @@
         <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -16693,7 +16689,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -16747,7 +16743,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -16769,7 +16765,7 @@
         <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -16789,10 +16785,11 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -16806,7 +16803,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16850,13 +16847,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16870,7 +16867,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -16926,7 +16923,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -16966,7 +16963,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -16986,7 +16983,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -17000,12 +16997,12 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -17018,9 +17015,6 @@
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -17040,7 +17034,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17048,7 +17042,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -17068,7 +17062,7 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17096,7 +17090,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17124,7 +17118,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
@@ -17135,7 +17129,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -17150,7 +17144,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17164,7 +17158,7 @@
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -17226,7 +17220,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17254,7 +17248,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -17296,7 +17290,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -17335,7 +17329,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
@@ -17370,7 +17364,7 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -17378,7 +17372,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>21</v>
@@ -17389,7 +17383,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -17398,7 +17392,7 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
@@ -17412,7 +17406,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -17426,7 +17420,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -17437,7 +17431,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -17460,7 +17454,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>22</v>
@@ -17508,13 +17502,13 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -17522,7 +17516,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
@@ -17542,7 +17536,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -17556,13 +17550,13 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -17582,7 +17576,7 @@
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -17610,13 +17604,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -17624,7 +17618,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>21</v>
@@ -17635,7 +17629,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
@@ -17658,7 +17652,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
@@ -17672,13 +17666,13 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -17692,13 +17686,13 @@
         <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -17712,7 +17706,7 @@
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -17726,7 +17720,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9696" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99190296-3D4E-463A-BD43-FA9F2076C1A8}"/>
+  <xr:revisionPtr revIDLastSave="9698" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F9977B-67D4-4321-B9D0-C28BC2EB6F8A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -4871,7 +4871,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FA930977-AF80-4F20-BC99-E68F08D324AE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4883,7 +4883,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6073F10A-5E22-4D75-8587-9171F08B9A20}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4927,7 +4927,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4954,10 +4954,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5262,8 +5258,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,8 +5346,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6480,8 +6476,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,8 +7429,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8128,8 +8124,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8672,8 +8668,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9700,8 +9696,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10252,8 +10248,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10380,7 +10376,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10823,8 +10819,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11402,8 +11398,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11921,8 +11917,8 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12945,8 +12941,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13994,8 +13990,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14726,8 +14722,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15794,8 +15790,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16802,8 +16798,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
+++ b/Tennis/WTA Tour/Garbiñe Muguruza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9698" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F9977B-67D4-4321-B9D0-C28BC2EB6F8A}"/>
+  <xr:revisionPtr revIDLastSave="9700" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20CAAC18-CDFB-43B7-B3C6-3AD04F04B086}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="14" r:id="rId1"/>
@@ -500,9 +500,6 @@
     <t>WTA FINALS</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>WUHAN OPEN</t>
   </si>
   <si>
@@ -2442,6 +2439,9 @@
   </si>
   <si>
     <t>6-3 7-6</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -4871,7 +4871,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FA930977-AF80-4F20-BC99-E68F08D324AE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4883,7 +4883,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6073F10A-5E22-4D75-8587-9171F08B9A20}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5258,7 +5258,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -5303,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -5323,7 +5323,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -5346,13 +5346,13 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -5397,7 +5397,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5407,13 +5407,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -5471,7 +5471,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -5485,7 +5485,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -5513,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -5547,12 +5547,12 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -5561,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -5575,7 +5575,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>796</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -5595,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -5615,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -5629,13 +5629,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
+        <v>600</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
         <v>601</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5643,13 +5643,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5663,7 +5663,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5683,7 +5683,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5691,13 +5691,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5705,18 +5705,18 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>604</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
         <v>605</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -5725,18 +5725,18 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -5771,7 +5771,7 @@
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5799,7 +5799,7 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -5841,13 +5841,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5855,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -5869,18 +5869,18 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -5889,13 +5889,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5903,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -5917,13 +5917,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5937,12 +5937,12 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -5971,7 +5971,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -5985,7 +5985,7 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -6013,13 +6013,13 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6075,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
@@ -6089,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -6123,7 +6123,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -6143,7 +6143,7 @@
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6151,18 +6151,18 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -6171,7 +6171,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -6185,13 +6185,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6261,7 +6261,7 @@
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -6289,18 +6289,18 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -6309,7 +6309,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>21</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -6357,7 +6357,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>22</v>
@@ -6371,13 +6371,13 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6391,7 +6391,7 @@
         <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,7 +6411,7 @@
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -6476,13 +6476,13 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -6521,13 +6521,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6535,7 +6535,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -6544,13 +6544,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>624</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,13 +6558,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6578,7 +6578,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -6592,18 +6592,18 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -6612,7 +6612,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -6646,7 +6646,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6660,7 +6660,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6668,7 +6668,7 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>796</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -6708,7 +6708,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6716,18 +6716,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -6736,13 +6736,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
+        <v>629</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>630</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6756,7 +6756,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -6790,7 +6790,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -6804,7 +6804,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -6818,7 +6818,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -6852,12 +6852,12 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -6866,18 +6866,18 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -6900,13 +6900,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6914,13 +6914,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6934,18 +6934,18 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -6960,7 +6960,7 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6968,7 +6968,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -6996,13 +6996,13 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7035,7 +7035,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -7044,7 +7044,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -7078,13 +7078,13 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7092,18 +7092,18 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -7112,13 +7112,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
@@ -7146,18 +7146,18 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -7180,7 +7180,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -7200,7 +7200,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -7214,7 +7214,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
@@ -7228,13 +7228,13 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7248,7 +7248,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>22</v>
@@ -7262,7 +7262,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -7282,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -7296,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -7310,13 +7310,13 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7324,18 +7324,18 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
+        <v>648</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
         <v>649</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -7358,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>21</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -7378,13 +7378,13 @@
         <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7398,7 +7398,7 @@
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>21</v>
@@ -7429,13 +7429,13 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7488,13 +7488,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7508,7 +7508,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -7528,7 +7528,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7542,7 +7542,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -7570,7 +7570,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -7598,18 +7598,18 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>796</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -7618,13 +7618,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -7671,7 +7671,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -7685,13 +7685,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7705,7 +7705,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7713,7 +7713,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -7733,18 +7733,18 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -7753,13 +7753,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
+        <v>668</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
         <v>669</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7767,13 +7767,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7781,13 +7781,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7815,24 +7815,24 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>672</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
         <v>673</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7843,12 +7843,12 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -7863,7 +7863,7 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7877,7 +7877,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
@@ -7891,13 +7891,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>676</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
         <v>677</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7911,7 +7911,7 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7925,13 +7925,13 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
+        <v>678</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
         <v>679</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -7953,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -7987,7 +7987,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8013,7 +8013,7 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8027,18 +8027,18 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -8047,18 +8047,18 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8081,7 +8081,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -8107,7 +8107,7 @@
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -8124,13 +8124,13 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -8160,7 +8160,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8169,13 +8169,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>686</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8185,13 +8185,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8201,7 +8201,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -8245,7 +8245,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8259,13 +8259,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8273,13 +8273,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>693</v>
-      </c>
       <c r="F9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8293,13 +8293,13 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8307,13 +8307,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8321,7 +8321,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -8349,7 +8349,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -8363,13 +8363,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>694</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>695</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8383,12 +8383,12 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>796</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -8397,13 +8397,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>698</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8411,13 +8411,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8425,18 +8425,18 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -8445,13 +8445,13 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8459,7 +8459,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -8473,7 +8473,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -8493,7 +8493,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8507,7 +8507,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -8521,7 +8521,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -8555,13 +8555,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
+        <v>702</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>703</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8597,13 +8597,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8617,13 +8617,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
+        <v>706</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
         <v>707</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8631,7 +8631,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -8645,13 +8645,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -8668,13 +8668,13 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8713,7 +8713,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -8727,7 +8727,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -8741,7 +8741,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -8761,7 +8761,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -8775,7 +8775,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -8823,7 +8823,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8837,7 +8837,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -8851,7 +8851,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -8865,7 +8865,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -8879,18 +8879,18 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -8899,7 +8899,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -8910,13 +8910,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8924,7 +8924,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -8944,7 +8944,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>796</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -8972,7 +8972,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -8986,7 +8986,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -9000,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -9014,13 +9014,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9028,13 +9028,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9042,13 +9042,13 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
+        <v>716</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
         <v>717</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9062,7 +9062,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
@@ -9076,13 +9076,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9090,13 +9090,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9110,7 +9110,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -9124,13 +9124,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -9144,7 +9144,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -9159,13 +9159,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
+        <v>723</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
         <v>724</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -9173,7 +9173,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
@@ -9193,7 +9193,7 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -9227,7 +9227,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
@@ -9241,13 +9241,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -9261,7 +9261,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
@@ -9275,7 +9275,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -9289,18 +9289,18 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -9309,7 +9309,7 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -9323,7 +9323,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -9337,7 +9337,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -9351,7 +9351,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -9371,18 +9371,18 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -9391,7 +9391,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
@@ -9405,13 +9405,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9425,13 +9425,13 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9439,7 +9439,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -9459,7 +9459,7 @@
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9467,18 +9467,18 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -9487,7 +9487,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
@@ -9507,7 +9507,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9515,7 +9515,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -9529,13 +9529,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9543,18 +9543,18 @@
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -9563,18 +9563,18 @@
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -9583,7 +9583,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -9597,7 +9597,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>21</v>
@@ -9623,7 +9623,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9631,13 +9631,13 @@
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9645,7 +9645,7 @@
         <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -9673,7 +9673,7 @@
         <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -9696,13 +9696,13 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -9741,13 +9741,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>751</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9755,7 +9755,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -9775,7 +9775,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -9789,7 +9789,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>796</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9809,13 +9809,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9823,18 +9823,18 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -9849,7 +9849,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9857,7 +9857,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -9891,18 +9891,18 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -9911,7 +9911,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -9922,7 +9922,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -9942,18 +9942,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -9962,7 +9962,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -9976,13 +9976,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9996,18 +9996,18 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -10016,18 +10016,18 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -10036,13 +10036,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10050,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -10070,7 +10070,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -10090,7 +10090,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -10104,7 +10104,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -10124,7 +10124,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -10144,13 +10144,13 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
+        <v>771</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
         <v>772</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10158,7 +10158,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -10172,18 +10172,18 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -10192,7 +10192,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -10206,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -10226,13 +10226,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
+        <v>779</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
         <v>780</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -10248,7 +10248,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -10293,18 +10293,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -10313,7 +10313,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -10333,18 +10333,18 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -10353,7 +10353,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -10394,10 +10394,10 @@
         <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>142</v>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B19" s="5">
         <f>AVERAGE(B2:B17)</f>
@@ -10819,7 +10819,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -10864,7 +10864,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -10875,7 +10875,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -10884,7 +10884,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -10898,7 +10898,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -10912,7 +10912,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -10940,7 +10940,7 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -10960,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -10974,13 +10974,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10988,7 +10988,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -11022,7 +11022,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -11042,7 +11042,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -11059,7 +11059,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -11073,7 +11073,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -11087,7 +11087,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -11112,7 +11112,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -11121,7 +11121,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -11135,13 +11135,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11149,7 +11149,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -11163,18 +11163,18 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -11183,18 +11183,18 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -11203,7 +11203,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -11217,13 +11217,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>290</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11231,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -11251,7 +11251,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -11271,7 +11271,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -11285,7 +11285,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -11299,18 +11299,18 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -11319,7 +11319,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -11333,7 +11333,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -11347,7 +11347,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -11361,13 +11361,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -11375,13 +11375,13 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -11398,7 +11398,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11434,7 +11434,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -11443,7 +11443,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -11457,7 +11457,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -11471,7 +11471,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -11499,18 +11499,18 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -11519,7 +11519,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -11533,7 +11533,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -11547,7 +11547,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -11575,18 +11575,18 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -11595,13 +11595,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
         <v>314</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11609,18 +11609,18 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -11629,7 +11629,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -11640,13 +11640,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>318</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11654,7 +11654,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -11674,13 +11674,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>322</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11699,7 +11699,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -11708,7 +11708,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -11722,13 +11722,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11736,7 +11736,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -11750,7 +11750,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -11764,7 +11764,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -11798,13 +11798,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
         <v>332</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11812,7 +11812,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
@@ -11826,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -11840,18 +11840,18 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -11860,7 +11860,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
@@ -11871,7 +11871,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -11880,7 +11880,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -11894,13 +11894,13 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
+        <v>340</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
         <v>341</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -11917,7 +11917,7 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11953,7 +11953,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -11962,7 +11962,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -11973,7 +11973,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -11982,7 +11982,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -11996,7 +11996,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -12010,7 +12010,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -12021,7 +12021,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -12030,13 +12030,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>348</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12044,7 +12044,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -12058,7 +12058,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -12086,7 +12086,7 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -12106,7 +12106,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -12120,7 +12120,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -12134,13 +12134,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12148,13 +12148,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12162,7 +12162,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -12182,7 +12182,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -12196,7 +12196,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -12210,7 +12210,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -12224,18 +12224,18 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>360</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
         <v>361</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -12244,7 +12244,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -12258,7 +12258,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -12272,7 +12272,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -12300,7 +12300,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -12320,7 +12320,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -12334,13 +12334,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>368</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -12348,13 +12348,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -12376,18 +12376,18 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -12396,7 +12396,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -12416,7 +12416,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
@@ -12430,13 +12430,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -12444,13 +12444,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -12472,7 +12472,7 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -12483,7 +12483,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -12492,7 +12492,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
@@ -12506,7 +12506,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -12520,18 +12520,18 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -12540,7 +12540,7 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
@@ -12554,7 +12554,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
@@ -12579,7 +12579,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -12588,13 +12588,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -12602,18 +12602,18 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
+        <v>383</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
         <v>384</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -12622,7 +12622,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -12636,7 +12636,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -12650,7 +12650,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -12661,7 +12661,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
@@ -12670,7 +12670,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -12690,7 +12690,7 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -12698,13 +12698,13 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -12726,7 +12726,7 @@
         <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -12746,18 +12746,18 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
@@ -12766,7 +12766,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -12780,7 +12780,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
@@ -12794,18 +12794,18 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -12814,13 +12814,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -12828,7 +12828,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>22</v>
@@ -12842,7 +12842,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>21</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -12862,7 +12862,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>22</v>
@@ -12876,7 +12876,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>22</v>
@@ -12890,7 +12890,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -12904,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -12918,13 +12918,13 @@
         <v>51</v>
       </c>
       <c r="D80" t="s">
+        <v>402</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
         <v>403</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -12941,7 +12941,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -12986,7 +12986,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -13000,13 +13000,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13014,7 +13014,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -13028,7 +13028,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -13048,13 +13048,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -13062,7 +13062,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -13082,12 +13082,12 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -13096,7 +13096,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -13107,7 +13107,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -13116,7 +13116,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -13130,7 +13130,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -13141,7 +13141,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -13150,23 +13150,23 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -13175,7 +13175,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -13189,7 +13189,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -13203,13 +13203,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -13217,13 +13217,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13231,7 +13231,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -13259,7 +13259,7 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -13285,7 +13285,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -13313,7 +13313,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -13332,7 +13332,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -13341,7 +13341,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -13361,12 +13361,12 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -13375,7 +13375,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -13389,13 +13389,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13403,13 +13403,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13417,13 +13417,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13442,7 +13442,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -13471,7 +13471,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -13499,18 +13499,18 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -13519,7 +13519,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -13533,7 +13533,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -13553,13 +13553,13 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13587,7 +13587,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -13607,18 +13607,18 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -13627,7 +13627,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -13641,7 +13641,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -13655,13 +13655,13 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13675,7 +13675,7 @@
         <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13683,18 +13683,18 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
@@ -13703,7 +13703,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -13717,13 +13717,13 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13737,18 +13737,18 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -13757,7 +13757,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -13771,13 +13771,13 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13785,13 +13785,13 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
+        <v>449</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
         <v>450</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13811,12 +13811,12 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -13831,12 +13831,12 @@
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -13845,13 +13845,13 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13859,7 +13859,7 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>21</v>
@@ -13879,7 +13879,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>21</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -13899,13 +13899,13 @@
         <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -13913,7 +13913,7 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -13933,12 +13933,12 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -13947,18 +13947,18 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
+        <v>460</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
         <v>461</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -13967,13 +13967,13 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -13990,7 +13990,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -14035,18 +14035,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -14055,7 +14055,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -14069,7 +14069,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -14089,7 +14089,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -14109,7 +14109,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -